--- a/Wyniki 3/S4.xlsx
+++ b/Wyniki 3/S4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D326C29E-D04D-4F3C-AFD5-0D975A73FE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A201F5-7265-44B5-A38A-CCA6FF090F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="57">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -138,6 +138,81 @@
   </si>
   <si>
     <t>840MB</t>
+  </si>
+  <si>
+    <t>Średni czas grupy (ms)</t>
+  </si>
+  <si>
+    <t>Maksymalny czas grupy (ms)</t>
+  </si>
+  <si>
+    <t>62MB</t>
+  </si>
+  <si>
+    <t>332MB</t>
+  </si>
+  <si>
+    <t>p(90) grupy (ms)</t>
+  </si>
+  <si>
+    <t>p(95) grupy (ms)</t>
+  </si>
+  <si>
+    <t>1,6GB</t>
+  </si>
+  <si>
+    <t>303MB</t>
+  </si>
+  <si>
+    <t>297MB</t>
+  </si>
+  <si>
+    <t>298MB</t>
+  </si>
+  <si>
+    <t>1,7GB</t>
+  </si>
+  <si>
+    <t>307MB</t>
+  </si>
+  <si>
+    <t>308MB</t>
+  </si>
+  <si>
+    <t>311MB</t>
+  </si>
+  <si>
+    <t>305MB</t>
+  </si>
+  <si>
+    <t>309MB</t>
+  </si>
+  <si>
+    <t>203MB</t>
+  </si>
+  <si>
+    <t>9MB</t>
+  </si>
+  <si>
+    <t>2GB</t>
+  </si>
+  <si>
+    <t>90MB</t>
+  </si>
+  <si>
+    <t>3,2GB</t>
+  </si>
+  <si>
+    <t>140MB</t>
+  </si>
+  <si>
+    <t>3,1GB</t>
+  </si>
+  <si>
+    <t>139MB</t>
+  </si>
+  <si>
+    <t>143MB</t>
   </si>
 </sst>
 </file>
@@ -821,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="D30" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +907,7 @@
     <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
@@ -843,7 +918,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,120 +941,256 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.94</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8.84</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9.26</v>
+      </c>
+      <c r="L9">
+        <f>AVERAGE(G9:K9)</f>
+        <v>8.9879999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1">
+        <v>164.21</v>
+      </c>
+      <c r="H10" s="1">
+        <v>156</v>
+      </c>
+      <c r="I10" s="1">
+        <v>157.57</v>
+      </c>
+      <c r="J10" s="1">
+        <v>161.34</v>
+      </c>
+      <c r="K10" s="1">
+        <v>152.1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L50" si="0">AVERAGE(G10:K10)</f>
+        <v>158.244</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>14.71</v>
+      </c>
+      <c r="H11" s="1">
+        <v>14.07</v>
+      </c>
+      <c r="I11" s="1">
+        <v>14.77</v>
+      </c>
+      <c r="J11" s="1">
+        <v>14.47</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15.18</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>14.639999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>17.07</v>
+      </c>
+      <c r="H12" s="1">
+        <v>16.34</v>
+      </c>
+      <c r="I12" s="1">
+        <v>17.12</v>
+      </c>
+      <c r="J12" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>17.53</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>16.911999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>1.0760000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>148.38999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>149.86000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>153.15</v>
+      </c>
+      <c r="J15" s="1">
+        <v>149.07</v>
+      </c>
+      <c r="K15" s="1">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>148.53400000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="G16" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1.9439999999999997</v>
+      </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="G17" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>2.2559999999999998</v>
+      </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" t="e">
-        <f>AVERAGE(G18:K18)</f>
-        <v>#DIV/0!</v>
+      <c r="G18" s="1">
+        <v>666688</v>
+      </c>
+      <c r="H18" s="1">
+        <v>666736</v>
+      </c>
+      <c r="I18" s="1">
+        <v>666736</v>
+      </c>
+      <c r="J18" s="1">
+        <v>666648</v>
+      </c>
+      <c r="K18" s="1">
+        <v>666496</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>666660.80000000005</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.25">
@@ -987,14 +1198,24 @@
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" t="e">
-        <f t="shared" ref="L19:L50" si="0">AVERAGE(G19:K19)</f>
-        <v>#DIV/0!</v>
+      <c r="G19" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="H19" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="I19" s="1">
+        <v>960.1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="K19" s="1">
+        <v>960.1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>960.48000000000013</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
@@ -1002,14 +1223,24 @@
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G20" s="1">
+        <v>693.98</v>
+      </c>
+      <c r="H20" s="1">
+        <v>693.98</v>
+      </c>
+      <c r="I20" s="1">
+        <v>694.47</v>
+      </c>
+      <c r="J20" s="1">
+        <v>693.84</v>
+      </c>
+      <c r="K20" s="1">
+        <v>694.19</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>694.0920000000001</v>
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.25">
@@ -1017,11 +1248,21 @@
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="L21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1032,11 +1273,21 @@
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="L22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1047,61 +1298,101 @@
         <v>1000</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>32</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1040</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1050</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1080</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1080</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>1066</v>
       </c>
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>33</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1380</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1580</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1400</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1380</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1710</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>1490</v>
       </c>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>36</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1240</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1250</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1290</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1290</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1290</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>1272</v>
       </c>
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>37</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1250</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1260</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1300</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1300</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1310</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>1284</v>
       </c>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.25">
@@ -1109,14 +1400,24 @@
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G27" s="2">
+        <v>131.08000000000001</v>
+      </c>
+      <c r="H27" s="2">
+        <v>131.25</v>
+      </c>
+      <c r="I27" s="2">
+        <v>136.05000000000001</v>
+      </c>
+      <c r="J27" s="2">
+        <v>135.91</v>
+      </c>
+      <c r="K27" s="2">
+        <v>135.22</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>133.90200000000002</v>
       </c>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.25">
@@ -1124,14 +1425,24 @@
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="5:12" x14ac:dyDescent="0.25">
@@ -1139,14 +1450,24 @@
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G29" s="2">
+        <v>214.96</v>
+      </c>
+      <c r="H29" s="2">
+        <v>253.16</v>
+      </c>
+      <c r="I29" s="2">
+        <v>217.28</v>
+      </c>
+      <c r="J29" s="2">
+        <v>211.29</v>
+      </c>
+      <c r="K29" s="2">
+        <v>261.25</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>231.58800000000002</v>
       </c>
     </row>
     <row r="30" spans="5:12" x14ac:dyDescent="0.25">
@@ -1154,14 +1475,24 @@
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G30" s="2">
+        <v>158.24</v>
+      </c>
+      <c r="H30" s="2">
+        <v>159.16999999999999</v>
+      </c>
+      <c r="I30" s="2">
+        <v>164.48</v>
+      </c>
+      <c r="J30" s="2">
+        <v>164.16</v>
+      </c>
+      <c r="K30" s="2">
+        <v>164.52</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>162.11399999999998</v>
       </c>
     </row>
     <row r="31" spans="5:12" x14ac:dyDescent="0.25">
@@ -1169,14 +1500,24 @@
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G31" s="2">
+        <v>160.97999999999999</v>
+      </c>
+      <c r="H31" s="2">
+        <v>162.57</v>
+      </c>
+      <c r="I31" s="2">
+        <v>167.31</v>
+      </c>
+      <c r="J31" s="2">
+        <v>166.95</v>
+      </c>
+      <c r="K31" s="2">
+        <v>168.47</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>165.256</v>
       </c>
     </row>
     <row r="32" spans="5:12" x14ac:dyDescent="0.25">
@@ -1184,14 +1525,24 @@
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G32" s="2">
+        <v>3281848</v>
+      </c>
+      <c r="H32" s="2">
+        <v>3279744</v>
+      </c>
+      <c r="I32" s="2">
+        <v>3219424</v>
+      </c>
+      <c r="J32" s="2">
+        <v>3221088</v>
+      </c>
+      <c r="K32" s="2">
+        <v>3229592</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>3246339.2</v>
       </c>
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.25">
@@ -1199,14 +1550,24 @@
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G33" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="H33" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="I33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="J33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="K33" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>960.62000000000012</v>
       </c>
     </row>
     <row r="34" spans="5:12" x14ac:dyDescent="0.25">
@@ -1214,14 +1575,24 @@
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G34" s="2">
+        <v>3416.4</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3414.16</v>
+      </c>
+      <c r="I34" s="2">
+        <v>3351.07</v>
+      </c>
+      <c r="J34" s="2">
+        <v>3352.9</v>
+      </c>
+      <c r="K34" s="2">
+        <v>3362.3</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>3379.3659999999995</v>
       </c>
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.25">
@@ -1229,11 +1600,21 @@
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="L35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1244,11 +1625,21 @@
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="L36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1259,61 +1650,101 @@
         <v>4000</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>32</v>
+      </c>
+      <c r="G37" s="1">
+        <v>7120</v>
+      </c>
+      <c r="H37" s="1">
+        <v>7090</v>
+      </c>
+      <c r="I37" s="1">
+        <v>7010</v>
+      </c>
+      <c r="J37" s="1">
+        <v>7150</v>
+      </c>
+      <c r="K37" s="1">
+        <v>7060</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>7086</v>
       </c>
     </row>
     <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>33</v>
+      </c>
+      <c r="G38" s="1">
+        <v>8500</v>
+      </c>
+      <c r="H38" s="1">
+        <v>8370</v>
+      </c>
+      <c r="I38" s="1">
+        <v>8370</v>
+      </c>
+      <c r="J38" s="1">
+        <v>8580</v>
+      </c>
+      <c r="K38" s="1">
+        <v>8400</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>8444</v>
       </c>
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>36</v>
+      </c>
+      <c r="G39" s="1">
+        <v>8190</v>
+      </c>
+      <c r="H39" s="1">
+        <v>8150</v>
+      </c>
+      <c r="I39" s="1">
+        <v>8060</v>
+      </c>
+      <c r="J39" s="1">
+        <v>8230</v>
+      </c>
+      <c r="K39" s="1">
+        <v>8110</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>8148</v>
       </c>
     </row>
     <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>37</v>
+      </c>
+      <c r="G40" s="1">
+        <v>8210</v>
+      </c>
+      <c r="H40" s="1">
+        <v>8160</v>
+      </c>
+      <c r="I40" s="1">
+        <v>8080</v>
+      </c>
+      <c r="J40" s="1">
+        <v>8250</v>
+      </c>
+      <c r="K40" s="1">
+        <v>8130</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>8166</v>
       </c>
     </row>
     <row r="41" spans="5:12" x14ac:dyDescent="0.25">
@@ -1321,14 +1752,24 @@
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G41" s="1">
+        <v>890.47</v>
+      </c>
+      <c r="H41" s="1">
+        <v>886.61</v>
+      </c>
+      <c r="I41" s="1">
+        <v>877.06</v>
+      </c>
+      <c r="J41" s="1">
+        <v>894.35</v>
+      </c>
+      <c r="K41" s="1">
+        <v>883.19</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>886.33600000000001</v>
       </c>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.25">
@@ -1336,14 +1777,24 @@
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="5:12" x14ac:dyDescent="0.25">
@@ -1351,14 +1802,24 @@
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G43" s="1">
+        <v>1240</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1150</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1170</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1280</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1200</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>1208</v>
       </c>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.25">
@@ -1366,14 +1827,24 @@
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G44" s="1">
+        <v>1030</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1030</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1010</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1040</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1020</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>1026</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.25">
@@ -1381,14 +1852,24 @@
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G45" s="1">
+        <v>1040</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1030</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1020</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1040</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1030</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>1032</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.25">
@@ -1396,14 +1877,24 @@
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G46" s="1">
+        <v>3317664</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3330520</v>
+      </c>
+      <c r="I46" s="1">
+        <v>3362016</v>
+      </c>
+      <c r="J46" s="1">
+        <v>3305168</v>
+      </c>
+      <c r="K46" s="1">
+        <v>3341616</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>3331396.8</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.25">
@@ -1411,14 +1902,24 @@
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="K47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.72</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.25">
@@ -1426,14 +1927,24 @@
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G48" s="1">
+        <v>3453.76</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3466.22</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3499.7</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3439.87</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3478.65</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>3467.6400000000003</v>
       </c>
     </row>
     <row r="49" spans="5:12" x14ac:dyDescent="0.25">
@@ -1441,11 +1952,21 @@
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1456,11 +1977,21 @@
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1481,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E427240-8CAA-40AB-9EE3-C007F0D8C5C2}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41:K50"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,7 +2023,7 @@
     <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1503,7 +2034,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -1549,7 +2080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -1570,7 +2101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -1591,7 +2122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -1612,74 +2143,154 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="L13">
+        <f>AVERAGE(G13:K13)</f>
+        <v>2.6559999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L50" si="0">AVERAGE(G14:K14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>152.85</v>
+      </c>
+      <c r="H15" s="1">
+        <v>44.09</v>
+      </c>
+      <c r="I15" s="1">
+        <v>149.85</v>
+      </c>
+      <c r="J15" s="1">
+        <v>148.1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>148.24</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>128.626</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="G16" s="1">
+        <v>3.98</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3.89</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>3.9140000000000001</v>
+      </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="G17" s="1">
+        <v>4.62</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4.38</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>4.5419999999999998</v>
+      </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" t="e">
-        <f>AVERAGE(G18:K18)</f>
-        <v>#DIV/0!</v>
+      <c r="G18" s="1">
+        <v>83852</v>
+      </c>
+      <c r="H18" s="1">
+        <v>83852</v>
+      </c>
+      <c r="I18" s="1">
+        <v>83854</v>
+      </c>
+      <c r="J18" s="1">
+        <v>83851</v>
+      </c>
+      <c r="K18" s="1">
+        <v>83858</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>83853.399999999994</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.25">
@@ -1687,14 +2298,24 @@
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" t="e">
-        <f t="shared" ref="L19:L50" si="0">AVERAGE(G19:K19)</f>
-        <v>#DIV/0!</v>
+      <c r="G19" s="1">
+        <v>961</v>
+      </c>
+      <c r="H19" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="I19" s="1">
+        <v>960</v>
+      </c>
+      <c r="J19" s="1">
+        <v>961</v>
+      </c>
+      <c r="K19" s="1">
+        <v>961</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>960.76</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
@@ -1702,14 +2323,24 @@
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G20" s="1">
+        <v>87.25</v>
+      </c>
+      <c r="H20" s="1">
+        <v>87.27</v>
+      </c>
+      <c r="I20" s="1">
+        <v>87.35</v>
+      </c>
+      <c r="J20" s="1">
+        <v>87.25</v>
+      </c>
+      <c r="K20" s="1">
+        <v>87.26</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>87.275999999999996</v>
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.25">
@@ -1717,11 +2348,21 @@
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="L21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1732,11 +2373,21 @@
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1849,14 +2500,24 @@
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G27" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2.19</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>1.9419999999999997</v>
       </c>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.25">
@@ -1864,14 +2525,24 @@
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="5:12" x14ac:dyDescent="0.25">
@@ -1879,14 +2550,24 @@
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G29" s="2">
+        <v>149.21</v>
+      </c>
+      <c r="H29" s="2">
+        <v>144.13</v>
+      </c>
+      <c r="I29" s="2">
+        <v>151.38</v>
+      </c>
+      <c r="J29" s="2">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="K29" s="2">
+        <v>150.4</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>133.47200000000001</v>
       </c>
     </row>
     <row r="30" spans="5:12" x14ac:dyDescent="0.25">
@@ -1894,14 +2575,24 @@
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G30" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3.62</v>
+      </c>
+      <c r="K30" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="5:12" x14ac:dyDescent="0.25">
@@ -1909,14 +2600,24 @@
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G31" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="H31" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="J31" s="2">
+        <v>5.15</v>
+      </c>
+      <c r="K31" s="2">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>3.8359999999999999</v>
       </c>
     </row>
     <row r="32" spans="5:12" x14ac:dyDescent="0.25">
@@ -1924,14 +2625,24 @@
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G32" s="2">
+        <v>838807</v>
+      </c>
+      <c r="H32" s="2">
+        <v>838807</v>
+      </c>
+      <c r="I32" s="2">
+        <v>838790</v>
+      </c>
+      <c r="J32" s="2">
+        <v>838311</v>
+      </c>
+      <c r="K32" s="2">
+        <v>838384</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>838619.8</v>
       </c>
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.25">
@@ -1939,14 +2650,24 @@
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G33" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="H33" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="I33" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="J33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="K33" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>960.56000000000006</v>
       </c>
     </row>
     <row r="34" spans="5:12" x14ac:dyDescent="0.25">
@@ -1954,14 +2675,24 @@
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G34" s="2">
+        <v>873.32</v>
+      </c>
+      <c r="H34" s="2">
+        <v>873.34</v>
+      </c>
+      <c r="I34" s="2">
+        <v>873.31</v>
+      </c>
+      <c r="J34" s="2">
+        <v>872.64</v>
+      </c>
+      <c r="K34" s="2">
+        <v>872.8</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>873.08199999999999</v>
       </c>
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.25">
@@ -1969,11 +2700,21 @@
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="L35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -1984,11 +2725,21 @@
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2101,14 +2852,24 @@
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G41" s="1">
+        <v>1560</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1580</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1560</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1500</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1520</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>1544</v>
       </c>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.25">
@@ -2116,14 +2877,24 @@
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="5:12" x14ac:dyDescent="0.25">
@@ -2131,14 +2902,24 @@
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G43" s="1">
+        <v>2100</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1990</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1900</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1960</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>1990</v>
       </c>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.25">
@@ -2146,14 +2927,24 @@
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G44" s="1">
+        <v>1820</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1840</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1820</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1750</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1760</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>1798</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.25">
@@ -2161,14 +2952,24 @@
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G45" s="1">
+        <v>1840</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1850</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1830</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1770</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1770</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>1812</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.25">
@@ -2176,14 +2977,24 @@
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G46" s="1">
+        <v>1309204</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1301619</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1310174</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1340088</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1333974</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1319011.8</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.25">
@@ -2191,14 +3002,24 @@
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G47" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="H47" s="1">
+        <v>961</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="K47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.81999999999994</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.25">
@@ -2206,14 +3027,24 @@
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G48" s="1">
+        <v>1362.58</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1354.46</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1363.64</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1395.11</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1388.2</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>1372.798</v>
       </c>
     </row>
     <row r="49" spans="5:12" x14ac:dyDescent="0.25">
@@ -2221,11 +3052,21 @@
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2236,11 +3077,21 @@
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="L50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4602,10 +5453,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491B2463-697C-4FC5-A88C-76F5DBC70B85}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView topLeftCell="B25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4613,6 +5464,7 @@
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:12" x14ac:dyDescent="0.25">
@@ -4773,7 +5625,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14">
-        <f t="shared" ref="L14:L50" si="0">AVERAGE(G14:I14)</f>
+        <f t="shared" ref="L14:L51" si="0">AVERAGE(G14:I14)</f>
         <v>0</v>
       </c>
     </row>
@@ -5565,6 +6417,12 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L51" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -5585,8 +6443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB6DA92-7223-446A-BEE3-0FF2B848B2A6}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Wyniki 3/S4.xlsx
+++ b/Wyniki 3/S4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A201F5-7265-44B5-A38A-CCA6FF090F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8936D0-9910-421E-B178-B05B90E666A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="62">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -213,6 +213,21 @@
   </si>
   <si>
     <t>143MB</t>
+  </si>
+  <si>
+    <t>212MB</t>
+  </si>
+  <si>
+    <t>138MB</t>
+  </si>
+  <si>
+    <t>2,8GB</t>
+  </si>
+  <si>
+    <t>1,8GB</t>
+  </si>
+  <si>
+    <t>2,4GB</t>
   </si>
 </sst>
 </file>
@@ -900,14 +915,14 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
@@ -918,7 +933,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -968,7 +983,7 @@
         <v>8.9879999999999995</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>33</v>
@@ -993,7 +1008,7 @@
         <v>158.244</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -1018,7 +1033,7 @@
         <v>14.639999999999997</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -1043,7 +1058,7 @@
         <v>16.911999999999999</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -1068,7 +1083,7 @@
         <v>1.0760000000000001</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -1093,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -1118,7 +1133,7 @@
         <v>148.53400000000002</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -1143,7 +1158,7 @@
         <v>1.9439999999999997</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -1168,7 +1183,7 @@
         <v>2.2559999999999998</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -1193,7 +1208,7 @@
         <v>666660.80000000005</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -1218,7 +1233,7 @@
         <v>960.48000000000013</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1243,7 +1258,7 @@
         <v>694.0920000000001</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -1268,7 +1283,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -1293,7 +1308,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -1320,7 +1335,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>33</v>
@@ -1345,7 +1360,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>36</v>
@@ -1370,7 +1385,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>37</v>
@@ -1395,7 +1410,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -1420,7 +1435,7 @@
         <v>133.90200000000002</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -1445,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -1470,7 +1485,7 @@
         <v>231.58800000000002</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -1495,7 +1510,7 @@
         <v>162.11399999999998</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -1520,7 +1535,7 @@
         <v>165.256</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -1545,7 +1560,7 @@
         <v>3246339.2</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -1570,7 +1585,7 @@
         <v>960.62000000000012</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -1595,7 +1610,7 @@
         <v>3379.3659999999995</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -1620,7 +1635,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1645,7 +1660,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -1672,7 +1687,7 @@
         <v>7086</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>33</v>
@@ -1697,7 +1712,7 @@
         <v>8444</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>36</v>
@@ -1722,7 +1737,7 @@
         <v>8148</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>37</v>
@@ -1747,7 +1762,7 @@
         <v>8166</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -1772,7 +1787,7 @@
         <v>886.33600000000001</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -1797,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -1822,7 +1837,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -1847,7 +1862,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -1872,7 +1887,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -1897,7 +1912,7 @@
         <v>3331396.8</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -1922,7 +1937,7 @@
         <v>960.72</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -1947,7 +1962,7 @@
         <v>3467.6400000000003</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -1972,7 +1987,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -2016,14 +2031,14 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2034,7 +2049,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2057,7 +2072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -2080,7 +2095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -2101,7 +2116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -2122,7 +2137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -2143,7 +2158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -2168,7 +2183,7 @@
         <v>2.6559999999999997</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -2193,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -2218,7 +2233,7 @@
         <v>128.626</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -2243,7 +2258,7 @@
         <v>3.9140000000000001</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -2268,7 +2283,7 @@
         <v>4.5419999999999998</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -2293,7 +2308,7 @@
         <v>83853.399999999994</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2318,7 +2333,7 @@
         <v>960.76</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -2343,7 +2358,7 @@
         <v>87.275999999999996</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -2368,7 +2383,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -2393,7 +2408,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -2420,7 +2435,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -2445,7 +2460,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -2470,7 +2485,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -2495,7 +2510,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -2520,7 +2535,7 @@
         <v>1.9419999999999997</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -2545,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -2570,7 +2585,7 @@
         <v>133.47200000000001</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -2595,7 +2610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -2620,7 +2635,7 @@
         <v>3.8359999999999999</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -2645,7 +2660,7 @@
         <v>838619.8</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -2670,7 +2685,7 @@
         <v>960.56000000000006</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -2695,7 +2710,7 @@
         <v>873.08199999999999</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -2720,7 +2735,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -2745,7 +2760,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -2772,7 +2787,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -2797,7 +2812,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -2822,7 +2837,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -2847,7 +2862,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -2872,7 +2887,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -2897,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -2922,7 +2937,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -2947,7 +2962,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -2972,7 +2987,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -2997,7 +3012,7 @@
         <v>1319011.8</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -3022,7 +3037,7 @@
         <v>960.81999999999994</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -3047,7 +3062,7 @@
         <v>1372.798</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -3072,7 +3087,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -3112,18 +3127,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCC0AA-C984-4903-81D8-D871D2663DA5}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41:K50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
-    <col min="7" max="11" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="7" max="11" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
@@ -3134,7 +3149,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3157,7 +3172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -3180,7 +3195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -3201,7 +3216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -3222,7 +3237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -3243,113 +3258,149 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3.23</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1">
+        <v>156.91999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>170.96</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.58</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1">
+        <v>5.16</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5.23</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1">
+        <v>83819</v>
+      </c>
+      <c r="H18" s="1">
+        <v>83804</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" t="e">
+      <c r="L18">
         <f>AVERAGE(G18:K18)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+        <v>83811.5</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1">
+        <v>960.4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>960.5</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" t="e">
+      <c r="L19">
         <f t="shared" ref="L19:L50" si="0">AVERAGE(G19:K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+        <v>960.45</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1">
+        <v>87.27</v>
+      </c>
+      <c r="H20" s="1">
+        <v>87.25</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>87.259999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3358,13 +3409,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3373,7 +3428,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -3400,7 +3455,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -3425,7 +3480,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -3450,7 +3505,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -3475,133 +3530,169 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>3.28</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="2">
+        <v>152.25</v>
+      </c>
+      <c r="H29" s="2">
+        <v>83.32</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>117.785</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5.37</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>5.2349999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="2">
+        <v>6.82</v>
+      </c>
+      <c r="H31" s="2">
+        <v>7.45</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>7.1349999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="2">
+        <v>837532</v>
+      </c>
+      <c r="H32" s="2">
+        <v>837491</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>837511.5</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="G33" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="H33" s="2">
+        <v>960.6</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>960.6</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="G34" s="2">
+        <v>871.91</v>
+      </c>
+      <c r="H34" s="2">
+        <v>871.82</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>871.86500000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -3610,13 +3701,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -3625,7 +3720,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -3652,7 +3747,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -3677,7 +3772,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -3702,7 +3797,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -3727,133 +3822,169 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="G41" s="1">
+        <v>2080</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2560</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="1">
+        <v>3030</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3140</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="G44" s="1">
+        <v>2360</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2980</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="G45" s="1">
+        <v>2840</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2990</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="G46" s="1">
+        <v>1091427</v>
+      </c>
+      <c r="H46" s="1">
+        <v>942493</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1016960</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="G47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.89</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.79500000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="G48" s="1">
+        <v>1136.04</v>
+      </c>
+      <c r="H48" s="1">
+        <v>980.8</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>1058.42</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3862,13 +3993,17 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3897,14 +4032,14 @@
       <selection activeCell="G41" sqref="G41:K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
@@ -3915,7 +4050,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3938,7 +4073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -3961,7 +4096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -3982,7 +4117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -4003,7 +4138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -4024,7 +4159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -4035,7 +4170,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -4046,7 +4181,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -4057,7 +4192,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -4068,7 +4203,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -4079,7 +4214,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -4094,7 +4229,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -4109,7 +4244,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -4124,7 +4259,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -4139,7 +4274,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -4154,7 +4289,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -4181,7 +4316,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -4206,7 +4341,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -4231,7 +4366,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -4256,7 +4391,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -4271,7 +4406,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -4286,7 +4421,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -4301,7 +4436,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -4316,7 +4451,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -4331,7 +4466,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -4346,7 +4481,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -4361,7 +4496,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -4376,7 +4511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -4391,7 +4526,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -4406,7 +4541,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -4433,7 +4568,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -4458,7 +4593,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -4483,7 +4618,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -4508,7 +4643,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -4523,7 +4658,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -4538,7 +4673,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -4553,7 +4688,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -4568,7 +4703,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -4583,7 +4718,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -4598,7 +4733,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -4613,7 +4748,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -4628,7 +4763,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -4643,7 +4778,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -4674,18 +4809,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DECBD8-A425-424A-AD1A-0E08D414502E}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
@@ -4696,7 +4831,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4719,7 +4854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -4742,7 +4877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -4763,7 +4898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -4784,7 +4919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -4805,7 +4940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -4816,7 +4951,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -4827,7 +4962,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -4838,7 +4973,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -4849,7 +4984,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -4860,7 +4995,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -4875,7 +5010,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -4890,7 +5025,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -4905,7 +5040,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -4920,7 +5055,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -4935,7 +5070,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -4962,7 +5097,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -4987,7 +5122,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -5012,7 +5147,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -5037,7 +5172,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -5052,7 +5187,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -5067,7 +5202,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -5082,7 +5217,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -5097,7 +5232,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -5112,7 +5247,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -5127,7 +5262,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -5142,7 +5277,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -5157,7 +5292,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -5172,7 +5307,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -5187,7 +5322,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -5214,7 +5349,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -5239,7 +5374,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -5264,7 +5399,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -5289,7 +5424,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -5304,7 +5439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -5319,7 +5454,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -5334,7 +5469,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -5349,7 +5484,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -5364,7 +5499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -5379,7 +5514,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -5394,7 +5529,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -5409,7 +5544,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -5424,7 +5559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -5455,19 +5590,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491B2463-697C-4FC5-A88C-76F5DBC70B85}">
   <dimension ref="E7:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L51"/>
+    <sheetView topLeftCell="B28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
@@ -5478,7 +5613,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5501,7 +5636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -5524,7 +5659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -5545,7 +5680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -5566,7 +5701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -5587,7 +5722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -5608,7 +5743,7 @@
         <v>3.3366666666666664</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -5629,7 +5764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -5650,7 +5785,7 @@
         <v>147.81333333333333</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -5671,7 +5806,7 @@
         <v>5.4533333333333331</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -5692,7 +5827,7 @@
         <v>6.4366666666666674</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -5713,7 +5848,7 @@
         <v>83792.666666666672</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -5734,7 +5869,7 @@
         <v>960.63333333333321</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -5755,7 +5890,7 @@
         <v>87.23</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -5776,7 +5911,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -5797,7 +5932,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -5824,7 +5959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -5849,7 +5984,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -5874,7 +6009,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -5899,7 +6034,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -5920,7 +6055,7 @@
         <v>10.979999999999999</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -5941,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -5962,7 +6097,7 @@
         <v>248.09</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -5983,7 +6118,7 @@
         <v>21.633333333333329</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -6004,7 +6139,7 @@
         <v>29.176666666666666</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -6025,7 +6160,7 @@
         <v>831089.66666666663</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -6046,7 +6181,7 @@
         <v>960.69999999999993</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -6067,7 +6202,7 @@
         <v>865.10333333333335</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -6088,7 +6223,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -6109,7 +6244,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -6136,7 +6271,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -6161,7 +6296,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -6186,7 +6321,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -6211,7 +6346,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -6232,7 +6367,7 @@
         <v>2686.6666666666665</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -6253,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -6274,7 +6409,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -6295,7 +6430,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -6316,7 +6451,7 @@
         <v>3146.6666666666665</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -6337,7 +6472,7 @@
         <v>911775</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -6358,7 +6493,7 @@
         <v>960.6</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -6379,7 +6514,7 @@
         <v>949.18333333333339</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -6400,7 +6535,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -6421,7 +6556,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:12" x14ac:dyDescent="0.35">
       <c r="L51" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6443,19 +6578,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB6DA92-7223-446A-BEE3-0FF2B848B2A6}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
@@ -6466,7 +6601,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -6489,7 +6624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -6512,7 +6647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -6533,7 +6668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -6554,7 +6689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -6575,7 +6710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -6596,7 +6731,7 @@
         <v>3.2733333333333334</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -6617,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -6638,7 +6773,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -6659,7 +6794,7 @@
         <v>5.4833333333333334</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -6680,7 +6815,7 @@
         <v>6.4499999999999993</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -6701,7 +6836,7 @@
         <v>83800</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -6722,7 +6857,7 @@
         <v>960.69999999999993</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -6743,7 +6878,7 @@
         <v>87.23</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -6764,7 +6899,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -6785,7 +6920,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -6812,7 +6947,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -6837,7 +6972,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -6862,7 +6997,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -6887,7 +7022,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -6908,7 +7043,7 @@
         <v>3.6366666666666667</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -6929,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -6950,7 +7085,7 @@
         <v>113.68333333333332</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -6971,7 +7106,7 @@
         <v>6.7366666666666672</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -6992,7 +7127,7 @@
         <v>8.8733333333333348</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -7013,7 +7148,7 @@
         <v>837182</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -7034,7 +7169,7 @@
         <v>960.76666666666677</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -7055,7 +7190,7 @@
         <v>874.67666666666662</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -7076,7 +7211,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -7097,7 +7232,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -7124,7 +7259,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -7149,7 +7284,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -7174,7 +7309,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -7199,7 +7334,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -7220,7 +7355,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -7241,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -7262,7 +7397,7 @@
         <v>3136.6666666666665</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -7283,7 +7418,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -7304,7 +7439,7 @@
         <v>2603.3333333333335</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -7325,7 +7460,7 @@
         <v>1046129.3333333334</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -7346,7 +7481,7 @@
         <v>960.83333333333337</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -7367,7 +7502,7 @@
         <v>1088.75</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -7388,7 +7523,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>

--- a/Wyniki 3/S4.xlsx
+++ b/Wyniki 3/S4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8936D0-9910-421E-B178-B05B90E666A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0320258-1B4D-4335-86BE-D27B5839B2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="72">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -221,13 +221,43 @@
     <t>138MB</t>
   </si>
   <si>
-    <t>2,8GB</t>
+    <t>2,6GB</t>
   </si>
   <si>
-    <t>1,8GB</t>
+    <t>100MB</t>
   </si>
   <si>
-    <t>2,4GB</t>
+    <t>69MB</t>
+  </si>
+  <si>
+    <t>1GB</t>
+  </si>
+  <si>
+    <t>686MB</t>
+  </si>
+  <si>
+    <t>687MB</t>
+  </si>
+  <si>
+    <t>1,3GB</t>
+  </si>
+  <si>
+    <t>902MB</t>
+  </si>
+  <si>
+    <t>901MB</t>
+  </si>
+  <si>
+    <t>905MB</t>
+  </si>
+  <si>
+    <t>903MB</t>
+  </si>
+  <si>
+    <t>101MB</t>
+  </si>
+  <si>
+    <t>695MB</t>
   </si>
 </sst>
 </file>
@@ -243,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +283,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -382,6 +418,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -911,18 +956,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="D30" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="D27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
@@ -933,7 +978,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -983,7 +1028,7 @@
         <v>8.9879999999999995</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>33</v>
@@ -1008,7 +1053,7 @@
         <v>158.244</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -1033,7 +1078,7 @@
         <v>14.639999999999997</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -1058,7 +1103,7 @@
         <v>16.911999999999999</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -1083,7 +1128,7 @@
         <v>1.0760000000000001</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -1108,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -1133,7 +1178,7 @@
         <v>148.53400000000002</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -1158,7 +1203,7 @@
         <v>1.9439999999999997</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -1183,7 +1228,7 @@
         <v>2.2559999999999998</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -1208,7 +1253,7 @@
         <v>666660.80000000005</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -1233,7 +1278,7 @@
         <v>960.48000000000013</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1258,7 +1303,7 @@
         <v>694.0920000000001</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -1283,7 +1328,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -1308,7 +1353,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -1335,7 +1380,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>33</v>
@@ -1360,7 +1405,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>36</v>
@@ -1385,7 +1430,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>37</v>
@@ -1410,7 +1455,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -1435,7 +1480,7 @@
         <v>133.90200000000002</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -1460,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -1485,7 +1530,7 @@
         <v>231.58800000000002</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -1510,7 +1555,7 @@
         <v>162.11399999999998</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -1535,7 +1580,7 @@
         <v>165.256</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -1560,7 +1605,7 @@
         <v>3246339.2</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -1585,7 +1630,7 @@
         <v>960.62000000000012</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -1610,7 +1655,7 @@
         <v>3379.3659999999995</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -1635,7 +1680,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1660,7 +1705,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -1687,7 +1732,7 @@
         <v>7086</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>33</v>
@@ -1712,7 +1757,7 @@
         <v>8444</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>36</v>
@@ -1737,7 +1782,7 @@
         <v>8148</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>37</v>
@@ -1762,7 +1807,7 @@
         <v>8166</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -1787,7 +1832,7 @@
         <v>886.33600000000001</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -1812,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -1837,7 +1882,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -1862,7 +1907,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -1887,7 +1932,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -1912,7 +1957,7 @@
         <v>3331396.8</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -1937,7 +1982,7 @@
         <v>960.72</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -1962,7 +2007,7 @@
         <v>3467.6400000000003</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -1987,7 +2032,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -2031,14 +2076,14 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2049,7 +2094,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +2117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -2095,7 +2140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -2116,7 +2161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -2137,7 +2182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -2158,7 +2203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -2183,7 +2228,7 @@
         <v>2.6559999999999997</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -2208,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -2233,7 +2278,7 @@
         <v>128.626</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -2258,7 +2303,7 @@
         <v>3.9140000000000001</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -2283,7 +2328,7 @@
         <v>4.5419999999999998</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -2308,7 +2353,7 @@
         <v>83853.399999999994</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2333,7 +2378,7 @@
         <v>960.76</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -2358,7 +2403,7 @@
         <v>87.275999999999996</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -2383,7 +2428,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -2408,7 +2453,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -2435,7 +2480,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -2460,7 +2505,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -2485,7 +2530,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -2510,7 +2555,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -2535,7 +2580,7 @@
         <v>1.9419999999999997</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -2560,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -2585,7 +2630,7 @@
         <v>133.47200000000001</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -2610,7 +2655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -2635,7 +2680,7 @@
         <v>3.8359999999999999</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -2660,7 +2705,7 @@
         <v>838619.8</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -2685,7 +2730,7 @@
         <v>960.56000000000006</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -2710,7 +2755,7 @@
         <v>873.08199999999999</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -2735,7 +2780,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -2760,7 +2805,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -2787,7 +2832,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -2812,7 +2857,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -2837,7 +2882,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -2862,7 +2907,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -2887,7 +2932,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -2912,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -2937,7 +2982,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -2962,7 +3007,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -2987,7 +3032,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -3012,7 +3057,7 @@
         <v>1319011.8</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -3037,7 +3082,7 @@
         <v>960.81999999999994</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -3062,7 +3107,7 @@
         <v>1372.798</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -3087,7 +3132,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -3127,18 +3172,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCC0AA-C984-4903-81D8-D871D2663DA5}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
-    <col min="7" max="11" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="11" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
@@ -3149,7 +3194,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3172,8 +3217,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="E9" s="6">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="9">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -3195,8 +3240,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="E10" s="7"/>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3216,8 +3261,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="E11" s="7"/>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
@@ -3237,8 +3282,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="E12" s="7"/>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="10"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
@@ -3258,23 +3303,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="E13" s="7"/>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="10"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="H13" s="1">
-        <v>3.23</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="E14" s="7"/>
+        <v>3.31</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3284,114 +3335,156 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="E15" s="7"/>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="10"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="1">
-        <v>156.91999999999999</v>
+        <v>145.02000000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>170.96</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="E16" s="7"/>
+        <v>143.75</v>
+      </c>
+      <c r="I15" s="1">
+        <v>140.94</v>
+      </c>
+      <c r="J15" s="1">
+        <v>148.33000000000001</v>
+      </c>
+      <c r="K15" s="1">
+        <v>137.33000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="10"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.68</v>
       </c>
       <c r="H16" s="1">
-        <v>4.58</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E17" s="7"/>
+        <v>4.76</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4.96</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="10"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="1">
-        <v>5.16</v>
+        <v>5.3</v>
       </c>
       <c r="H17" s="1">
-        <v>5.23</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E18" s="7"/>
+        <v>5.58</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="1">
-        <v>83819</v>
+        <v>83794</v>
       </c>
       <c r="H18" s="1">
-        <v>83804</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+        <v>83798</v>
+      </c>
+      <c r="I18" s="1">
+        <v>83800</v>
+      </c>
+      <c r="J18" s="1">
+        <v>83791</v>
+      </c>
+      <c r="K18" s="1">
+        <v>83800</v>
+      </c>
       <c r="L18">
         <f>AVERAGE(G18:K18)</f>
-        <v>83811.5</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E19" s="7"/>
+        <v>83796.600000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="10"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="1">
-        <v>960.4</v>
+        <v>960.7</v>
       </c>
       <c r="H19" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="I19" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="J19" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="K19" s="1">
         <v>960.5</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
       <c r="L19">
         <f t="shared" ref="L19:L50" si="0">AVERAGE(G19:K19)</f>
-        <v>960.45</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E20" s="7"/>
+        <v>960.64</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="10"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="1">
-        <v>87.27</v>
+        <v>87.22</v>
       </c>
       <c r="H20" s="1">
-        <v>87.25</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+        <v>87.23</v>
+      </c>
+      <c r="I20" s="1">
+        <v>87.23</v>
+      </c>
+      <c r="J20" s="1">
+        <v>87.22</v>
+      </c>
+      <c r="K20" s="1">
+        <v>87.24</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>87.259999999999991</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E21" s="7"/>
+        <v>87.227999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="10"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
@@ -3401,35 +3494,47 @@
       <c r="H21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="L21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E22" s="8"/>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="11"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="L22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E23" s="6">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="9">
         <v>1000</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -3455,8 +3560,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E24" s="7"/>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="10"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
@@ -3480,8 +3585,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E25" s="7"/>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="10"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
@@ -3505,8 +3610,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E26" s="7"/>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="10"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
@@ -3530,27 +3635,33 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E27" s="7"/>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="10"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="H27" s="2">
-        <v>3.28</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+        <v>2.72</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2.71</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2.66</v>
+      </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E28" s="7"/>
+        <v>2.7260000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="10"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
@@ -3560,130 +3671,172 @@
       <c r="H28" s="2">
         <v>0</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
       <c r="L28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E29" s="7"/>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="10"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="2">
-        <v>152.25</v>
+        <v>137.12</v>
       </c>
       <c r="H29" s="2">
-        <v>83.32</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+        <v>136.81</v>
+      </c>
+      <c r="I29" s="2">
+        <v>147.11000000000001</v>
+      </c>
+      <c r="J29" s="2">
+        <v>150.49</v>
+      </c>
+      <c r="K29" s="2">
+        <v>50.24</v>
+      </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>117.785</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E30" s="7"/>
+        <v>124.354</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="10"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="2">
-        <v>5.0999999999999996</v>
+        <v>4.09</v>
       </c>
       <c r="H30" s="2">
-        <v>5.37</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+        <v>4.17</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4.42</v>
+      </c>
+      <c r="J30" s="2">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="K30" s="2">
+        <v>4.08</v>
+      </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>5.2349999999999994</v>
-      </c>
-    </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E31" s="7"/>
+        <v>4.1819999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="10"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="2">
-        <v>6.82</v>
+        <v>4.96</v>
       </c>
       <c r="H31" s="2">
-        <v>7.45</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+        <v>5.3</v>
+      </c>
+      <c r="I31" s="2">
+        <v>6.01</v>
+      </c>
+      <c r="J31" s="2">
+        <v>5.24</v>
+      </c>
+      <c r="K31" s="2">
+        <v>4.96</v>
+      </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>7.1349999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E32" s="7"/>
+        <v>5.2939999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="10"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G32" s="2">
-        <v>837532</v>
+        <v>837987</v>
       </c>
       <c r="H32" s="2">
-        <v>837491</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+        <v>837967</v>
+      </c>
+      <c r="I32" s="2">
+        <v>837824</v>
+      </c>
+      <c r="J32" s="2">
+        <v>837975</v>
+      </c>
+      <c r="K32" s="2">
+        <v>837994</v>
+      </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>837511.5</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E33" s="7"/>
+        <v>837949.4</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="10"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="2">
-        <v>960.6</v>
+        <v>960.9</v>
       </c>
       <c r="H33" s="2">
-        <v>960.6</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+        <v>960.9</v>
+      </c>
+      <c r="I33" s="2">
+        <v>960.4</v>
+      </c>
+      <c r="J33" s="2">
+        <v>961</v>
+      </c>
+      <c r="K33" s="2">
+        <v>960.9</v>
+      </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>960.6</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E34" s="7"/>
+        <v>960.81999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="10"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G34" s="2">
-        <v>871.91</v>
+        <v>872.08</v>
       </c>
       <c r="H34" s="2">
-        <v>871.82</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+        <v>872.04</v>
+      </c>
+      <c r="I34" s="2">
+        <v>872.38</v>
+      </c>
+      <c r="J34" s="2">
+        <v>872.03</v>
+      </c>
+      <c r="K34" s="2">
+        <v>872.09</v>
+      </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>871.86500000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E35" s="7"/>
+        <v>872.12400000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="10"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
@@ -3693,16 +3846,22 @@
       <c r="H35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E36" s="8"/>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="11"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
@@ -3712,16 +3871,22 @@
       <c r="H36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="L36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E37" s="6">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="9">
         <v>4000</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -3747,8 +3912,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E38" s="7"/>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E38" s="10"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
@@ -3772,8 +3937,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E39" s="7"/>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E39" s="10"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
@@ -3797,8 +3962,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E40" s="7"/>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E40" s="10"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
@@ -3822,27 +3987,33 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E41" s="7"/>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E41" s="10"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>2080</v>
+        <v>2290</v>
       </c>
       <c r="H41" s="1">
-        <v>2560</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+        <v>2310</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2300</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2300</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2310</v>
+      </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E42" s="7"/>
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E42" s="10"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
@@ -3852,130 +4023,170 @@
       <c r="H42" s="1">
         <v>0</v>
       </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
       <c r="L42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E43" s="7"/>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E43" s="10"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>3030</v>
+        <v>2840</v>
       </c>
       <c r="H43" s="1">
-        <v>3140</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+        <v>2810</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2980</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2860</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2760</v>
+      </c>
       <c r="L43">
         <f t="shared" si="0"/>
-        <v>3085</v>
-      </c>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E44" s="7"/>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="10"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>2360</v>
+        <v>2650</v>
       </c>
       <c r="H44" s="1">
-        <v>2980</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+        <v>2670</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2670</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2660</v>
+      </c>
       <c r="K44" s="1"/>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E45" s="7"/>
+        <v>2662.5</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="10"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>2840</v>
+        <v>2660</v>
       </c>
       <c r="H45" s="1">
-        <v>2990</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+        <v>2680</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2680</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2670</v>
+      </c>
+      <c r="K45" s="1">
+        <v>2670</v>
+      </c>
       <c r="L45">
         <f t="shared" si="0"/>
-        <v>2915</v>
-      </c>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E46" s="7"/>
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="10"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1091427</v>
+        <v>1022201</v>
       </c>
       <c r="H46" s="1">
-        <v>942493</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+        <v>1016154</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1016985</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1017707</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2680</v>
+      </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>1016960</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E47" s="7"/>
+        <v>815145.4</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="10"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="H47" s="1">
         <v>960.7</v>
       </c>
-      <c r="H47" s="1">
-        <v>960.89</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="I47" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="J47" s="1">
+        <v>961</v>
+      </c>
+      <c r="K47" s="1">
+        <v>960.7</v>
+      </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>960.79500000000007</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E48" s="7"/>
+        <v>960.74</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="10"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1136.04</v>
+        <v>1063.93</v>
       </c>
       <c r="H48" s="1">
-        <v>980.8</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+        <v>1057.72</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1058.76</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1059.04</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1057.73</v>
+      </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>1058.42</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E49" s="7"/>
+        <v>1059.4360000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E49" s="10"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
@@ -3983,30 +4194,42 @@
         <v>59</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E50" s="8"/>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E50" s="11"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4028,18 +4251,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E3BDB-BD67-41A1-991C-2FB34B0212C5}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="D31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41:K50"/>
+    <sheetView topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
@@ -4050,7 +4273,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4073,7 +4296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -4096,7 +4319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -4117,7 +4340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -4138,7 +4361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -4159,137 +4382,237 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G13" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3.42</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G15" s="1">
+        <v>39.54</v>
+      </c>
+      <c r="H15" s="1">
+        <v>133.36000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>145.1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>131.57</v>
+      </c>
+      <c r="K15" s="1">
+        <v>143.51</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G16" s="1">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G17" s="1">
+        <v>5.56</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5.61</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" t="e">
+      <c r="G18" s="1">
+        <v>83793</v>
+      </c>
+      <c r="H18" s="1">
+        <v>83786</v>
+      </c>
+      <c r="I18" s="1">
+        <v>83790</v>
+      </c>
+      <c r="J18" s="1">
+        <v>83794</v>
+      </c>
+      <c r="K18" s="1">
+        <v>83794</v>
+      </c>
+      <c r="L18">
         <f>AVERAGE(G18:K18)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+        <v>83791.399999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" t="e">
+      <c r="G19" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="H19" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="I19" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="J19" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="K19" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="L19">
         <f t="shared" ref="L19:L50" si="0">AVERAGE(G19:K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+        <v>960.65999999999985</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G20" s="1">
+        <v>87.22</v>
+      </c>
+      <c r="H20" s="1">
+        <v>87.22</v>
+      </c>
+      <c r="I20" s="1">
+        <v>87.21</v>
+      </c>
+      <c r="J20" s="1">
+        <v>87.23</v>
+      </c>
+      <c r="K20" s="1">
+        <v>87.24</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>87.224000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="L21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="L22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -4316,7 +4639,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -4341,7 +4664,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -4366,7 +4689,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -4391,157 +4714,257 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G27" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2.42</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2.77</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>2.5880000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G29" s="2">
+        <v>131.44</v>
+      </c>
+      <c r="H29" s="2">
+        <v>138.81</v>
+      </c>
+      <c r="I29" s="2">
+        <v>58.95</v>
+      </c>
+      <c r="J29" s="2">
+        <v>147.41</v>
+      </c>
+      <c r="K29" s="2">
+        <v>50.74</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>105.47</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G30" s="2">
+        <v>4.58</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3.64</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4.26</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="K30" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>3.9460000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G31" s="2">
+        <v>5.73</v>
+      </c>
+      <c r="H31" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="I31" s="2">
+        <v>5.48</v>
+      </c>
+      <c r="J31" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="K31" s="2">
+        <v>4.17</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>4.7840000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G32" s="2">
+        <v>837777</v>
+      </c>
+      <c r="H32" s="2">
+        <v>838217</v>
+      </c>
+      <c r="I32" s="2">
+        <v>837896</v>
+      </c>
+      <c r="J32" s="2">
+        <v>838210</v>
+      </c>
+      <c r="K32" s="2">
+        <v>838266</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>838073.2</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G33" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="H33" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="I33" s="2">
+        <v>961</v>
+      </c>
+      <c r="J33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="K33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>960.76</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G34" s="2">
+        <v>872.13</v>
+      </c>
+      <c r="H34" s="2">
+        <v>872.42</v>
+      </c>
+      <c r="I34" s="2">
+        <v>871.94</v>
+      </c>
+      <c r="J34" s="2">
+        <v>872.46</v>
+      </c>
+      <c r="K34" s="2">
+        <v>872.53</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>872.29599999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="L35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="L36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -4568,7 +4991,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -4593,7 +5016,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -4618,7 +5041,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -4643,151 +5066,251 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G41" s="1">
+        <v>2050</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2050</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2050</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2040</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2040</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G43" s="1">
+        <v>2710</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2650</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2550</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2540</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2450</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G44" s="1">
+        <v>2380</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2380</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2380</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2360</v>
+      </c>
+      <c r="K44" s="1">
+        <v>2370</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G45" s="1">
+        <v>2390</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2380</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2390</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2370</v>
+      </c>
+      <c r="K45" s="1">
+        <v>2380</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G46" s="1">
+        <v>1100697</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1100661</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1100155</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1105071</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1103407</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1101998.2</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="K47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.6</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G48" s="1">
+        <v>1145.8800000000001</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1145.8699999999999</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1145.2</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1150.55</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1148.49</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>1147.1979999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L50" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4809,18 +5332,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DECBD8-A425-424A-AD1A-0E08D414502E}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
@@ -4831,7 +5354,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4854,7 +5377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -4877,7 +5400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -4898,7 +5421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -4919,7 +5442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -4940,137 +5463,237 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G13" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.68</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G15" s="1">
+        <v>142.1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>141.83000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>147.77000000000001</v>
+      </c>
+      <c r="J15" s="1">
+        <v>143.22999999999999</v>
+      </c>
+      <c r="K15" s="1">
+        <v>147.27000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G16" s="1">
+        <v>4.04</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G17" s="1">
+        <v>4.68</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4.68</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" t="e">
+      <c r="G18" s="1">
+        <v>83852</v>
+      </c>
+      <c r="H18" s="1">
+        <v>83853</v>
+      </c>
+      <c r="I18" s="1">
+        <v>83851</v>
+      </c>
+      <c r="J18" s="1">
+        <v>83854</v>
+      </c>
+      <c r="K18" s="1">
+        <v>83852</v>
+      </c>
+      <c r="L18">
         <f>AVERAGE(G18:K18)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+        <v>83852.399999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" t="e">
+      <c r="G19" s="1">
+        <v>960</v>
+      </c>
+      <c r="H19" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="I19" s="1">
+        <v>961</v>
+      </c>
+      <c r="J19" s="1">
+        <v>961</v>
+      </c>
+      <c r="K19" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="L19">
         <f t="shared" ref="L19:L50" si="0">AVERAGE(G19:K19)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+        <v>960.74</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="G20" s="1">
+        <v>87.34</v>
+      </c>
+      <c r="H20" s="1">
+        <v>87.27</v>
+      </c>
+      <c r="I20" s="1">
+        <v>87.26</v>
+      </c>
+      <c r="J20" s="1">
+        <v>87.26</v>
+      </c>
+      <c r="K20" s="1">
+        <v>87.27</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>87.28</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="L22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -5097,7 +5720,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -5122,7 +5745,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -5147,7 +5770,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -5172,157 +5795,237 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="G27" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1.42</v>
+      </c>
       <c r="K27" s="2"/>
-      <c r="L27" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>1.4275</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
       <c r="K28" s="2"/>
-      <c r="L28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="G29" s="2">
+        <v>143.9</v>
+      </c>
+      <c r="H29" s="2">
+        <v>152.16999999999999</v>
+      </c>
+      <c r="I29" s="2">
+        <v>149.54</v>
+      </c>
+      <c r="J29" s="2">
+        <v>143.72</v>
+      </c>
       <c r="K29" s="2"/>
-      <c r="L29" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>147.33250000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="G30" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2.09</v>
+      </c>
       <c r="K30" s="2"/>
-      <c r="L30" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>2.1025</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="G31" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2.5299999999999998</v>
+      </c>
       <c r="K31" s="2"/>
-      <c r="L31" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>2.5374999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="G32" s="2">
+        <v>839073</v>
+      </c>
+      <c r="H32" s="2">
+        <v>839070</v>
+      </c>
+      <c r="I32" s="2">
+        <v>839064</v>
+      </c>
+      <c r="J32" s="2">
+        <v>839060</v>
+      </c>
       <c r="K32" s="2"/>
-      <c r="L32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>839066.75</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="G33" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="H33" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="I33" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="J33" s="2">
+        <v>960.8</v>
+      </c>
       <c r="K33" s="2"/>
-      <c r="L33" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>960.8</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="G34" s="2">
+        <v>873.4</v>
+      </c>
+      <c r="H34" s="2">
+        <v>873.32</v>
+      </c>
+      <c r="I34" s="2">
+        <v>873.22</v>
+      </c>
+      <c r="J34" s="2">
+        <v>873.25</v>
+      </c>
       <c r="K34" s="2"/>
-      <c r="L34" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>873.29750000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -5349,7 +6052,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -5374,7 +6077,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -5399,7 +6102,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -5424,150 +6127,230 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="G41" s="1">
+        <v>1380</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1380</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1380</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1380</v>
+      </c>
       <c r="K41" s="1"/>
-      <c r="L41" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
       <c r="K42" s="1"/>
-      <c r="L42" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="G43" s="1">
+        <v>1710</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1730</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1900</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1810</v>
+      </c>
       <c r="K43" s="1"/>
-      <c r="L43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>1787.5</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="G44" s="1">
+        <v>1610</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1610</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1620</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1610</v>
+      </c>
       <c r="K44" s="1"/>
-      <c r="L44" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>1612.5</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="G45" s="1">
+        <v>1620</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1620</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1640</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1610</v>
+      </c>
       <c r="K45" s="1"/>
-      <c r="L45" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>1622.5</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="G46" s="1">
+        <v>1412018</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1410913</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1407703</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1411822</v>
+      </c>
       <c r="K46" s="1"/>
-      <c r="L46" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1410614</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="G47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="H47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="I47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="J47" s="1">
+        <v>960.8</v>
+      </c>
       <c r="K47" s="1"/>
-      <c r="L47" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>960.77500000000009</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="G48" s="1">
+        <v>1469.82</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1468.36</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1465.23</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1469.5</v>
+      </c>
       <c r="K48" s="1"/>
-      <c r="L48" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>1468.2275</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="K49" s="1"/>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K50" s="1"/>
       <c r="L50" t="e">
         <f t="shared" si="0"/>
@@ -5590,19 +6373,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491B2463-697C-4FC5-A88C-76F5DBC70B85}">
   <dimension ref="E7:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
@@ -5613,7 +6396,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5636,7 +6419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -5659,7 +6442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -5680,7 +6463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -5701,7 +6484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -5722,7 +6505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -5743,7 +6526,7 @@
         <v>3.3366666666666664</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -5764,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -5785,7 +6568,7 @@
         <v>147.81333333333333</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -5806,7 +6589,7 @@
         <v>5.4533333333333331</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -5827,7 +6610,7 @@
         <v>6.4366666666666674</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -5848,7 +6631,7 @@
         <v>83792.666666666672</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -5869,7 +6652,7 @@
         <v>960.63333333333321</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -5890,7 +6673,7 @@
         <v>87.23</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -5911,7 +6694,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -5932,7 +6715,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -5959,7 +6742,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -5984,7 +6767,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -6009,7 +6792,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -6034,7 +6817,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -6055,7 +6838,7 @@
         <v>10.979999999999999</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -6076,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -6097,7 +6880,7 @@
         <v>248.09</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -6118,7 +6901,7 @@
         <v>21.633333333333329</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -6139,7 +6922,7 @@
         <v>29.176666666666666</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -6160,7 +6943,7 @@
         <v>831089.66666666663</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -6181,7 +6964,7 @@
         <v>960.69999999999993</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -6202,7 +6985,7 @@
         <v>865.10333333333335</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -6223,7 +7006,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -6244,7 +7027,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -6271,7 +7054,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -6296,7 +7079,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -6321,7 +7104,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -6346,7 +7129,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -6367,7 +7150,7 @@
         <v>2686.6666666666665</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -6388,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -6409,7 +7192,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -6430,7 +7213,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -6451,7 +7234,7 @@
         <v>3146.6666666666665</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -6472,7 +7255,7 @@
         <v>911775</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -6493,7 +7276,7 @@
         <v>960.6</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -6514,7 +7297,7 @@
         <v>949.18333333333339</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -6535,7 +7318,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -6556,7 +7339,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="L51" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6578,19 +7361,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB6DA92-7223-446A-BEE3-0FF2B848B2A6}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
@@ -6601,7 +7384,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -6624,7 +7407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -6647,7 +7430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -6668,7 +7451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -6689,7 +7472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -6710,7 +7493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -6731,7 +7514,7 @@
         <v>3.2733333333333334</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -6752,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -6773,7 +7556,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -6794,7 +7577,7 @@
         <v>5.4833333333333334</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -6815,7 +7598,7 @@
         <v>6.4499999999999993</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -6836,7 +7619,7 @@
         <v>83800</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -6857,7 +7640,7 @@
         <v>960.69999999999993</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -6878,7 +7661,7 @@
         <v>87.23</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -6899,7 +7682,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -6920,7 +7703,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -6947,7 +7730,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -6972,7 +7755,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -6997,7 +7780,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -7022,7 +7805,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -7043,7 +7826,7 @@
         <v>3.6366666666666667</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -7064,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -7085,7 +7868,7 @@
         <v>113.68333333333332</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -7106,7 +7889,7 @@
         <v>6.7366666666666672</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -7127,7 +7910,7 @@
         <v>8.8733333333333348</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -7148,7 +7931,7 @@
         <v>837182</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -7169,7 +7952,7 @@
         <v>960.76666666666677</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -7190,7 +7973,7 @@
         <v>874.67666666666662</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -7211,7 +7994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -7232,7 +8015,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -7259,7 +8042,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -7284,7 +8067,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -7309,7 +8092,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -7334,7 +8117,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -7355,7 +8138,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -7376,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -7397,7 +8180,7 @@
         <v>3136.6666666666665</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -7418,7 +8201,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -7439,7 +8222,7 @@
         <v>2603.3333333333335</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -7460,7 +8243,7 @@
         <v>1046129.3333333334</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -7481,7 +8264,7 @@
         <v>960.83333333333337</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -7502,7 +8285,7 @@
         <v>1088.75</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -7523,7 +8306,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>

--- a/Wyniki 3/S4.xlsx
+++ b/Wyniki 3/S4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0320258-1B4D-4335-86BE-D27B5839B2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0016424-2A51-4AC0-B8A4-CD7E768EADFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="85">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -259,6 +259,45 @@
   <si>
     <t>695MB</t>
   </si>
+  <si>
+    <t>2,2GB</t>
+  </si>
+  <si>
+    <t>987MB</t>
+  </si>
+  <si>
+    <t>673MB</t>
+  </si>
+  <si>
+    <t>805MB</t>
+  </si>
+  <si>
+    <t>818MB</t>
+  </si>
+  <si>
+    <t>845MB</t>
+  </si>
+  <si>
+    <t>842MB</t>
+  </si>
+  <si>
+    <t>1,1GB</t>
+  </si>
+  <si>
+    <t>780MB</t>
+  </si>
+  <si>
+    <t>767MB</t>
+  </si>
+  <si>
+    <t>794MB</t>
+  </si>
+  <si>
+    <t>786MB</t>
+  </si>
+  <si>
+    <t>788MB</t>
+  </si>
 </sst>
 </file>
 
@@ -273,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +328,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,6 +472,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,7 +611,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>537519</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:rowOff>34926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -597,16 +651,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>537519</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>34926</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>283519</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>168276</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -629,8 +683,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11410950" y="1143001"/>
-          <a:ext cx="3585519" cy="4413250"/>
+          <a:off x="13782675" y="1085851"/>
+          <a:ext cx="3585519" cy="4416425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -646,16 +700,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>537520</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>34926</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>524820</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>120651</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -678,8 +732,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11410950" y="1143001"/>
-          <a:ext cx="3585519" cy="4413250"/>
+          <a:off x="14020800" y="1038226"/>
+          <a:ext cx="3585520" cy="4416425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -960,14 +1014,14 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
@@ -978,7 +1032,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -1028,7 +1082,7 @@
         <v>8.9879999999999995</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>33</v>
@@ -1053,7 +1107,7 @@
         <v>158.244</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -1078,7 +1132,7 @@
         <v>14.639999999999997</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -1103,7 +1157,7 @@
         <v>16.911999999999999</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -1128,7 +1182,7 @@
         <v>1.0760000000000001</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -1153,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -1178,7 +1232,7 @@
         <v>148.53400000000002</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -1203,7 +1257,7 @@
         <v>1.9439999999999997</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -1228,7 +1282,7 @@
         <v>2.2559999999999998</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -1253,7 +1307,7 @@
         <v>666660.80000000005</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -1278,7 +1332,7 @@
         <v>960.48000000000013</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1303,7 +1357,7 @@
         <v>694.0920000000001</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -1328,7 +1382,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -1353,7 +1407,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -1380,7 +1434,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>33</v>
@@ -1405,7 +1459,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>36</v>
@@ -1430,7 +1484,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>37</v>
@@ -1455,7 +1509,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -1480,7 +1534,7 @@
         <v>133.90200000000002</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -1505,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -1530,7 +1584,7 @@
         <v>231.58800000000002</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -1555,7 +1609,7 @@
         <v>162.11399999999998</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -1580,7 +1634,7 @@
         <v>165.256</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -1605,7 +1659,7 @@
         <v>3246339.2</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -1630,7 +1684,7 @@
         <v>960.62000000000012</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -1655,7 +1709,7 @@
         <v>3379.3659999999995</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -1680,7 +1734,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1705,7 +1759,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -1732,7 +1786,7 @@
         <v>7086</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>33</v>
@@ -1757,7 +1811,7 @@
         <v>8444</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>36</v>
@@ -1782,7 +1836,7 @@
         <v>8148</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>37</v>
@@ -1807,7 +1861,7 @@
         <v>8166</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -1832,7 +1886,7 @@
         <v>886.33600000000001</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -1857,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -1882,7 +1936,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -1907,7 +1961,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -1932,7 +1986,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -1957,7 +2011,7 @@
         <v>3331396.8</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -1982,7 +2036,7 @@
         <v>960.72</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -2007,7 +2061,7 @@
         <v>3467.6400000000003</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -2032,7 +2086,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -2076,14 +2130,14 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2094,7 +2148,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -2140,7 +2194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -2161,7 +2215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -2182,7 +2236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -2203,7 +2257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -2228,7 +2282,7 @@
         <v>2.6559999999999997</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -2253,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -2278,7 +2332,7 @@
         <v>128.626</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -2303,7 +2357,7 @@
         <v>3.9140000000000001</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -2328,7 +2382,7 @@
         <v>4.5419999999999998</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -2353,7 +2407,7 @@
         <v>83853.399999999994</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2378,7 +2432,7 @@
         <v>960.76</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -2403,7 +2457,7 @@
         <v>87.275999999999996</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -2428,7 +2482,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -2453,7 +2507,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -2480,7 +2534,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -2505,7 +2559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -2530,7 +2584,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -2555,7 +2609,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -2580,7 +2634,7 @@
         <v>1.9419999999999997</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -2605,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -2630,7 +2684,7 @@
         <v>133.47200000000001</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -2655,7 +2709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -2680,7 +2734,7 @@
         <v>3.8359999999999999</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -2705,7 +2759,7 @@
         <v>838619.8</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -2730,7 +2784,7 @@
         <v>960.56000000000006</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -2755,7 +2809,7 @@
         <v>873.08199999999999</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -2780,7 +2834,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -2805,7 +2859,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E37" s="6">
         <v>4000</v>
       </c>
@@ -2832,7 +2886,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -2857,7 +2911,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -2882,7 +2936,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -2907,7 +2961,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -2932,7 +2986,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -2957,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -2982,7 +3036,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -3007,7 +3061,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -3032,7 +3086,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -3057,7 +3111,7 @@
         <v>1319011.8</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -3082,7 +3136,7 @@
         <v>960.81999999999994</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -3107,7 +3161,7 @@
         <v>1372.798</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -3132,7 +3186,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -3172,18 +3226,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCC0AA-C984-4903-81D8-D871D2663DA5}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="D29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
-    <col min="7" max="11" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="7" max="11" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
@@ -3194,7 +3248,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3217,7 +3271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E9" s="9">
         <v>100</v>
       </c>
@@ -3240,7 +3294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -3261,7 +3315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -3282,7 +3336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E12" s="10"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -3303,7 +3357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E13" s="10"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -3323,8 +3377,12 @@
       <c r="K13" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f>AVERAGE(G13:K13)</f>
+        <v>3.3240000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -3344,8 +3402,12 @@
       <c r="K14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" ref="L14:L50" si="0">AVERAGE(G14:K14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E15" s="10"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -3365,8 +3427,12 @@
       <c r="K15" s="1">
         <v>137.33000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>143.07400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E16" s="10"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -3386,8 +3452,12 @@
       <c r="K16" s="1">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>4.7279999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E17" s="10"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -3407,8 +3477,12 @@
       <c r="K17" s="1">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>5.4420000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E18" s="10"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -3429,11 +3503,11 @@
         <v>83800</v>
       </c>
       <c r="L18">
-        <f>AVERAGE(G18:K18)</f>
+        <f t="shared" si="0"/>
         <v>83796.600000000006</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E19" s="10"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -3454,11 +3528,11 @@
         <v>960.5</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L50" si="0">AVERAGE(G19:K19)</f>
+        <f t="shared" si="0"/>
         <v>960.64</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E20" s="10"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -3483,7 +3557,7 @@
         <v>87.227999999999994</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E21" s="10"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -3508,7 +3582,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E22" s="11"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -3533,7 +3607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E23" s="9">
         <v>1000</v>
       </c>
@@ -3560,7 +3634,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E24" s="10"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -3585,7 +3659,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E25" s="10"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -3610,7 +3684,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E26" s="10"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -3635,7 +3709,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E27" s="10"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -3660,7 +3734,7 @@
         <v>2.7260000000000004</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E28" s="10"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -3685,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E29" s="10"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -3710,7 +3784,7 @@
         <v>124.354</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E30" s="10"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -3735,7 +3809,7 @@
         <v>4.1819999999999995</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E31" s="10"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -3760,7 +3834,7 @@
         <v>5.2939999999999996</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E32" s="10"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -3785,7 +3859,7 @@
         <v>837949.4</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E33" s="10"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -3810,7 +3884,7 @@
         <v>960.81999999999994</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E34" s="10"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -3835,7 +3909,7 @@
         <v>872.12400000000002</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E35" s="10"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -3860,7 +3934,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E36" s="11"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -3885,7 +3959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E37" s="9">
         <v>4000</v>
       </c>
@@ -3912,7 +3986,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E38" s="10"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -3937,7 +4011,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E39" s="10"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -3962,7 +4036,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E40" s="10"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -3987,7 +4061,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E41" s="10"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
@@ -4012,7 +4086,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E42" s="10"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -4037,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E43" s="10"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -4062,7 +4136,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E44" s="10"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -4085,7 +4159,7 @@
         <v>2662.5</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E45" s="10"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -4110,7 +4184,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E46" s="10"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -4127,15 +4201,13 @@
       <c r="J46" s="1">
         <v>1017707</v>
       </c>
-      <c r="K46" s="1">
-        <v>2680</v>
-      </c>
+      <c r="K46" s="1"/>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>815145.4</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+        <v>1018261.75</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E47" s="10"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -4160,7 +4232,7 @@
         <v>960.74</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E48" s="10"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -4185,7 +4257,7 @@
         <v>1059.4360000000001</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E49" s="10"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
@@ -4210,7 +4282,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E50" s="11"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -4251,18 +4323,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E3BDB-BD67-41A1-991C-2FB34B0212C5}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView topLeftCell="E34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
@@ -4273,7 +4345,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4296,8 +4368,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="6">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E9" s="9">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -4319,8 +4391,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -4340,8 +4412,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
@@ -4361,8 +4433,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E12" s="10"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
@@ -4382,8 +4454,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E13" s="10"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
@@ -4402,9 +4474,13 @@
       <c r="K13" s="1">
         <v>3.37</v>
       </c>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="7"/>
+      <c r="L13">
+        <f>AVERAGE(G13:K13)</f>
+        <v>3.3860000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4423,9 +4499,13 @@
       <c r="K14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="7"/>
+      <c r="L14">
+        <f t="shared" ref="L14:L50" si="0">AVERAGE(G14:K14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E15" s="10"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
@@ -4444,9 +4524,13 @@
       <c r="K15" s="1">
         <v>143.51</v>
       </c>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="7"/>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>118.61599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E16" s="10"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
@@ -4465,9 +4549,13 @@
       <c r="K16" s="1">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="7"/>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E17" s="10"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
@@ -4486,9 +4574,13 @@
       <c r="K17" s="1">
         <v>5.83</v>
       </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="7"/>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>5.7379999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E18" s="10"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
@@ -4508,12 +4600,12 @@
         <v>83794</v>
       </c>
       <c r="L18">
-        <f>AVERAGE(G18:K18)</f>
+        <f t="shared" si="0"/>
         <v>83791.399999999994</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="7"/>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E19" s="10"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
@@ -4533,12 +4625,12 @@
         <v>960.5</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L50" si="0">AVERAGE(G19:K19)</f>
+        <f t="shared" si="0"/>
         <v>960.65999999999985</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="7"/>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E20" s="10"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
@@ -4562,8 +4654,8 @@
         <v>87.224000000000004</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="7"/>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E21" s="10"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
@@ -4587,8 +4679,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="8"/>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E22" s="11"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
@@ -4612,8 +4704,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="6">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E23" s="9">
         <v>1000</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -4639,8 +4731,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="7"/>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E24" s="10"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
@@ -4664,8 +4756,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="7"/>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E25" s="10"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
@@ -4689,8 +4781,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="7"/>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E26" s="10"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
@@ -4714,8 +4806,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="7"/>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E27" s="10"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
@@ -4739,8 +4831,8 @@
         <v>2.5880000000000001</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="7"/>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E28" s="10"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
@@ -4764,8 +4856,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="7"/>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E29" s="10"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
@@ -4789,8 +4881,8 @@
         <v>105.47</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E30" s="7"/>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E30" s="10"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
@@ -4814,8 +4906,8 @@
         <v>3.9460000000000002</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E31" s="7"/>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E31" s="10"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
@@ -4839,8 +4931,8 @@
         <v>4.7840000000000007</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E32" s="7"/>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E32" s="10"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
@@ -4864,8 +4956,8 @@
         <v>838073.2</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E33" s="7"/>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E33" s="10"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
@@ -4889,8 +4981,8 @@
         <v>960.76</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E34" s="7"/>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E34" s="10"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
@@ -4914,8 +5006,8 @@
         <v>872.29599999999994</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E35" s="7"/>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E35" s="10"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
@@ -4939,8 +5031,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E36" s="8"/>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E36" s="11"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
@@ -4964,8 +5056,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E37" s="6">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E37" s="9">
         <v>4000</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -4991,8 +5083,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E38" s="7"/>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E38" s="10"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
@@ -5016,8 +5108,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E39" s="7"/>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="10"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
@@ -5041,8 +5133,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E40" s="7"/>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="10"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
@@ -5066,8 +5158,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E41" s="7"/>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="10"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
@@ -5091,8 +5183,8 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E42" s="7"/>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="10"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
@@ -5116,8 +5208,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E43" s="7"/>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="10"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5141,8 +5233,8 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E44" s="7"/>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E44" s="10"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
@@ -5166,8 +5258,8 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E45" s="7"/>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E45" s="10"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
@@ -5191,8 +5283,8 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="7"/>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E46" s="10"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
@@ -5216,8 +5308,8 @@
         <v>1101998.2</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E47" s="7"/>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E47" s="10"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
@@ -5241,8 +5333,8 @@
         <v>960.6</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E48" s="7"/>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E48" s="10"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
@@ -5266,8 +5358,8 @@
         <v>1147.1979999999999</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E49" s="7"/>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E49" s="10"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
@@ -5291,8 +5383,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E50" s="8"/>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E50" s="11"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
@@ -5332,18 +5424,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DECBD8-A425-424A-AD1A-0E08D414502E}">
   <dimension ref="E7:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
@@ -5354,7 +5446,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5377,8 +5469,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="6">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E9" s="9">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -5400,8 +5492,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -5421,8 +5513,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
@@ -5442,8 +5534,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E12" s="10"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
@@ -5463,8 +5555,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E13" s="10"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
@@ -5483,9 +5575,13 @@
       <c r="K13" s="1">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="7"/>
+      <c r="L13">
+        <f>AVERAGE(G13:K13)</f>
+        <v>2.6680000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
@@ -5504,9 +5600,13 @@
       <c r="K14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="7"/>
+      <c r="L14">
+        <f t="shared" ref="L14:L50" si="0">AVERAGE(G14:K14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E15" s="10"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
@@ -5525,9 +5625,13 @@
       <c r="K15" s="1">
         <v>147.27000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="7"/>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>144.44</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E16" s="10"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
@@ -5546,9 +5650,13 @@
       <c r="K16" s="1">
         <v>3.97</v>
       </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="7"/>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>3.9819999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E17" s="10"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
@@ -5567,9 +5675,13 @@
       <c r="K17" s="1">
         <v>4.6500000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="7"/>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>4.645999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E18" s="10"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
@@ -5589,12 +5701,12 @@
         <v>83852</v>
       </c>
       <c r="L18">
-        <f>AVERAGE(G18:K18)</f>
+        <f t="shared" si="0"/>
         <v>83852.399999999994</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="7"/>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E19" s="10"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
@@ -5614,12 +5726,12 @@
         <v>960.9</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L50" si="0">AVERAGE(G19:K19)</f>
+        <f t="shared" si="0"/>
         <v>960.74</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="7"/>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E20" s="10"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
@@ -5643,8 +5755,8 @@
         <v>87.28</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="7"/>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E21" s="10"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
@@ -5668,8 +5780,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="8"/>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E22" s="11"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
@@ -5693,8 +5805,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="6">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E23" s="9">
         <v>1000</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -5720,8 +5832,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="7"/>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E24" s="10"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
@@ -5745,8 +5857,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="7"/>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E25" s="10"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
@@ -5770,8 +5882,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="7"/>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E26" s="10"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
@@ -5795,8 +5907,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="7"/>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E27" s="10"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
@@ -5818,8 +5930,8 @@
         <v>1.4275</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="7"/>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E28" s="10"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
@@ -5841,8 +5953,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="7"/>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E29" s="10"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
@@ -5864,8 +5976,8 @@
         <v>147.33250000000001</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E30" s="7"/>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E30" s="10"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
@@ -5887,8 +5999,8 @@
         <v>2.1025</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E31" s="7"/>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E31" s="10"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
@@ -5910,8 +6022,8 @@
         <v>2.5374999999999996</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E32" s="7"/>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E32" s="10"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
@@ -5933,8 +6045,8 @@
         <v>839066.75</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E33" s="7"/>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E33" s="10"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
@@ -5956,8 +6068,8 @@
         <v>960.8</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E34" s="7"/>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E34" s="10"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
@@ -5979,8 +6091,8 @@
         <v>873.29750000000001</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E35" s="7"/>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E35" s="10"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
@@ -6002,8 +6114,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E36" s="8"/>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E36" s="11"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
@@ -6025,8 +6137,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E37" s="6">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E37" s="9">
         <v>4000</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -6052,8 +6164,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E38" s="7"/>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E38" s="10"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
@@ -6077,8 +6189,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E39" s="7"/>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="10"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
@@ -6102,8 +6214,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E40" s="7"/>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="10"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
@@ -6127,8 +6239,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E41" s="7"/>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="10"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
@@ -6150,8 +6262,8 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E42" s="7"/>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="10"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
@@ -6173,8 +6285,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E43" s="7"/>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="10"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
@@ -6196,8 +6308,8 @@
         <v>1787.5</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E44" s="7"/>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E44" s="10"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
@@ -6219,8 +6331,8 @@
         <v>1612.5</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E45" s="7"/>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E45" s="10"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
@@ -6242,8 +6354,8 @@
         <v>1622.5</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="7"/>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E46" s="10"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
@@ -6265,8 +6377,8 @@
         <v>1410614</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E47" s="7"/>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E47" s="10"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
@@ -6288,8 +6400,8 @@
         <v>960.77500000000009</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E48" s="7"/>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E48" s="10"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
@@ -6311,8 +6423,8 @@
         <v>1468.2275</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E49" s="7"/>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E49" s="10"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
@@ -6334,8 +6446,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E50" s="8"/>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E50" s="11"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
@@ -6371,32 +6483,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491B2463-697C-4FC5-A88C-76F5DBC70B85}">
-  <dimension ref="E7:L51"/>
+  <dimension ref="E7:O64"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:E50"/>
+    <sheetView topLeftCell="E25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="3" t="s">
+    <row r="7" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -6418,9 +6533,18 @@
       <c r="K8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="6">
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7</v>
+      </c>
+      <c r="N8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E9" s="12">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -6441,9 +6565,18 @@
       <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
+      <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E10" s="12"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -6462,9 +6595,18 @@
       <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
+      <c r="L10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E11" s="12"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
@@ -6483,9 +6625,18 @@
       <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
+      <c r="L11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E12" s="12"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
@@ -6504,9 +6655,18 @@
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
+      <c r="L12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E13" s="12"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
@@ -6519,15 +6679,28 @@
       <c r="I13" s="1">
         <v>3.43</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13">
-        <f>AVERAGE(G13:I13)</f>
-        <v>3.3366666666666664</v>
-      </c>
-    </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="7"/>
+      <c r="J13" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="O13">
+        <f>AVERAGE(G13:N13)</f>
+        <v>3.4024999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E14" s="12"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
@@ -6540,15 +6713,28 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14">
-        <f t="shared" ref="L14:L51" si="0">AVERAGE(G14:I14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="7"/>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O50" si="0">AVERAGE(G14:N14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E15" s="12"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
@@ -6561,15 +6747,28 @@
       <c r="I15" s="1">
         <v>148.94999999999999</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>147.81333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="7"/>
+      <c r="J15" s="1">
+        <v>148.33000000000001</v>
+      </c>
+      <c r="K15" s="1">
+        <v>144.38</v>
+      </c>
+      <c r="L15" s="1">
+        <v>141.06</v>
+      </c>
+      <c r="M15" s="1">
+        <v>144.31</v>
+      </c>
+      <c r="N15" s="1">
+        <v>38.71</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>132.52875</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E16" s="12"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
@@ -6582,15 +6781,28 @@
       <c r="I16" s="1">
         <v>5.67</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>5.4533333333333331</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="7"/>
+      <c r="J16" s="1">
+        <v>5.35</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5.57</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5.94</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5.78</v>
+      </c>
+      <c r="N16" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E17" s="12"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
@@ -6603,15 +6815,28 @@
       <c r="I17" s="1">
         <v>6.74</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>6.4366666666666674</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="7"/>
+      <c r="J17" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="K17" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>7.12</v>
+      </c>
+      <c r="M17" s="1">
+        <v>6.92</v>
+      </c>
+      <c r="N17" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E18" s="12"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
@@ -6624,15 +6849,28 @@
       <c r="I18" s="1">
         <v>83785</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>83792.666666666672</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="7"/>
+      <c r="J18" s="1">
+        <v>83800</v>
+      </c>
+      <c r="K18" s="1">
+        <v>83784</v>
+      </c>
+      <c r="L18" s="1">
+        <v>83775</v>
+      </c>
+      <c r="M18" s="1">
+        <v>83781</v>
+      </c>
+      <c r="N18" s="1">
+        <v>83774</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>83786.5</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E19" s="12"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
@@ -6645,15 +6883,28 @@
       <c r="I19" s="1">
         <v>960.8</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>960.63333333333321</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="7"/>
+      <c r="J19" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="L19" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="M19" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="N19" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>960.68749999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E20" s="12"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
@@ -6666,15 +6917,28 @@
       <c r="I20" s="1">
         <v>87.2</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>87.23</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="7"/>
+      <c r="J20" s="1">
+        <v>87.24</v>
+      </c>
+      <c r="K20" s="1">
+        <v>87.2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>87.19</v>
+      </c>
+      <c r="M20" s="1">
+        <v>87.2</v>
+      </c>
+      <c r="N20" s="1">
+        <v>87.2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>87.215000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E21" s="12"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
@@ -6687,15 +6951,28 @@
       <c r="I21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" t="e">
+      <c r="J21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="8"/>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E22" s="12"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
@@ -6708,15 +6985,28 @@
       <c r="I22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" t="e">
+      <c r="J22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="6">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E23" s="12">
         <v>1000</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -6737,13 +7027,22 @@
       <c r="K23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L23" t="e">
+      <c r="L23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="7"/>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E24" s="12"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
@@ -6762,13 +7061,22 @@
       <c r="K24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L24" t="e">
+      <c r="L24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="7"/>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E25" s="12"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
@@ -6787,13 +7095,22 @@
       <c r="K25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L25" t="e">
+      <c r="L25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="7"/>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E26" s="12"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
@@ -6812,13 +7129,22 @@
       <c r="K26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L26" t="e">
+      <c r="L26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="7"/>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E27" s="12"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
@@ -6831,15 +7157,28 @@
       <c r="I27" s="2">
         <v>10.91</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>10.979999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="7"/>
+      <c r="J27" s="2">
+        <v>10.28</v>
+      </c>
+      <c r="K27" s="2">
+        <v>11.49</v>
+      </c>
+      <c r="L27" s="2">
+        <v>8.18</v>
+      </c>
+      <c r="M27" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="N27" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>10.561249999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E28" s="12"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
@@ -6852,15 +7191,28 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="7"/>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E29" s="12"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
@@ -6873,15 +7225,28 @@
       <c r="I29" s="2">
         <v>190.43</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>248.09</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E30" s="7"/>
+      <c r="J29" s="2">
+        <v>165.73</v>
+      </c>
+      <c r="K29" s="2">
+        <v>224</v>
+      </c>
+      <c r="L29" s="2">
+        <v>218.42</v>
+      </c>
+      <c r="M29" s="2">
+        <v>203.65</v>
+      </c>
+      <c r="N29" s="2">
+        <v>388.46</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>243.06625000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E30" s="12"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
@@ -6894,15 +7259,28 @@
       <c r="I30" s="2">
         <v>21.74</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>21.633333333333329</v>
-      </c>
-    </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E31" s="7"/>
+      <c r="J30" s="2">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="K30" s="2">
+        <v>20.63</v>
+      </c>
+      <c r="L30" s="2">
+        <v>15.56</v>
+      </c>
+      <c r="M30" s="2">
+        <v>20.65</v>
+      </c>
+      <c r="N30" s="2">
+        <v>18.27</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>19.897500000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E31" s="12"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
@@ -6915,15 +7293,28 @@
       <c r="I31" s="2">
         <v>29.12</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>29.176666666666666</v>
-      </c>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E32" s="7"/>
+      <c r="J31" s="2">
+        <v>24</v>
+      </c>
+      <c r="K31" s="2">
+        <v>26.66</v>
+      </c>
+      <c r="L31" s="2">
+        <v>20.54</v>
+      </c>
+      <c r="M31" s="2">
+        <v>25.78</v>
+      </c>
+      <c r="N31" s="2">
+        <v>23.42</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>25.991250000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E32" s="12"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
@@ -6936,15 +7327,28 @@
       <c r="I32" s="2">
         <v>831141</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>831089.66666666663</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E33" s="7"/>
+      <c r="J32" s="2">
+        <v>831677</v>
+      </c>
+      <c r="K32" s="2">
+        <v>830676</v>
+      </c>
+      <c r="L32" s="2">
+        <v>833390</v>
+      </c>
+      <c r="M32" s="2">
+        <v>830829</v>
+      </c>
+      <c r="N32" s="2">
+        <v>831660</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>831437.625</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E33" s="12"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
@@ -6957,15 +7361,28 @@
       <c r="I33" s="2">
         <v>960.9</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>960.69999999999993</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E34" s="7"/>
+      <c r="J33" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="K33" s="2">
+        <v>960.4</v>
+      </c>
+      <c r="L33" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="M33" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="N33" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>960.58749999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E34" s="12"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
@@ -6978,15 +7395,28 @@
       <c r="I34" s="2">
         <v>865.01</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>865.10333333333335</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E35" s="7"/>
+      <c r="J34" s="2">
+        <v>865.76</v>
+      </c>
+      <c r="K34" s="2">
+        <v>864.89</v>
+      </c>
+      <c r="L34" s="2">
+        <v>867.62</v>
+      </c>
+      <c r="M34" s="2">
+        <v>865.04</v>
+      </c>
+      <c r="N34" s="2">
+        <v>865.85</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>865.55875000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E35" s="12"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
@@ -6999,15 +7429,28 @@
       <c r="I35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" t="e">
+      <c r="J35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E36" s="8"/>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E36" s="12"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
@@ -7020,16 +7463,29 @@
       <c r="I36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" t="e">
+      <c r="J36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E37" s="6">
-        <v>4000</v>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E37" s="13">
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -7049,13 +7505,22 @@
       <c r="K37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L37" t="e">
+      <c r="L37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E38" s="7"/>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E38" s="13"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
@@ -7074,13 +7539,22 @@
       <c r="K38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L38" t="e">
+      <c r="L38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E39" s="7"/>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E39" s="13"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
@@ -7099,13 +7573,22 @@
       <c r="K39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L39" t="e">
+      <c r="L39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E40" s="7"/>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E40" s="13"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
@@ -7124,34 +7607,50 @@
       <c r="K40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L40" t="e">
+      <c r="L40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E41" s="7"/>
+    <row r="41" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E41" s="13"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>2680</v>
+        <v>915.13</v>
       </c>
       <c r="H41" s="1">
-        <v>2690</v>
+        <v>901.54</v>
       </c>
       <c r="I41" s="1">
-        <v>2690</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>2686.6666666666665</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E42" s="7"/>
+        <v>897.46</v>
+      </c>
+      <c r="J41" s="1">
+        <v>927.85</v>
+      </c>
+      <c r="K41" s="1">
+        <v>921.27</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>912.65</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E42" s="13"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
@@ -7164,99 +7663,134 @@
       <c r="I42" s="1">
         <v>0</v>
       </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E43" s="7"/>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E43" s="13"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>3470</v>
+        <v>1260</v>
       </c>
       <c r="H43" s="1">
-        <v>3470</v>
+        <v>1490</v>
       </c>
       <c r="I43" s="1">
-        <v>3410</v>
-      </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E44" s="7"/>
+        <v>1180</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1260</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1390</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43">
+        <f t="shared" si="0"/>
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="44" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E44" s="13"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>3120</v>
+        <v>1080</v>
       </c>
       <c r="H44" s="1">
-        <v>3130</v>
+        <v>1070</v>
       </c>
       <c r="I44" s="1">
-        <v>3140</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>3130</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E45" s="7"/>
+        <v>1060</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1100</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1090</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="45" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E45" s="13"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>3140</v>
+        <v>1090</v>
       </c>
       <c r="H45" s="1">
-        <v>3140</v>
+        <v>1090</v>
       </c>
       <c r="I45" s="1">
-        <v>3160</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>3146.6666666666665</v>
-      </c>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="7"/>
+        <v>1080</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1110</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1110</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="46" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E46" s="13"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>913359</v>
+        <v>877749</v>
       </c>
       <c r="H46" s="1">
-        <v>911493</v>
+        <v>884007</v>
       </c>
       <c r="I46" s="1">
-        <v>910473</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>911775</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E47" s="7"/>
+        <v>885922</v>
+      </c>
+      <c r="J46" s="1">
+        <v>871994</v>
+      </c>
+      <c r="K46" s="1">
+        <v>874958</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46">
+        <f t="shared" si="0"/>
+        <v>878926</v>
+      </c>
+    </row>
+    <row r="47" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E47" s="13"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
@@ -7264,93 +7798,538 @@
         <v>960.7</v>
       </c>
       <c r="H47" s="1">
+        <v>960.4</v>
+      </c>
+      <c r="I47" s="1">
         <v>960.5</v>
       </c>
-      <c r="I47" s="1">
-        <v>960.6</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>960.6</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E48" s="7"/>
+      <c r="J47" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="K47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>960.64</v>
+      </c>
+    </row>
+    <row r="48" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E48" s="13"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>950.74</v>
+        <v>913.67</v>
       </c>
       <c r="H48" s="1">
-        <v>948.97</v>
+        <v>920.5</v>
       </c>
       <c r="I48" s="1">
-        <v>947.84</v>
-      </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48">
-        <f t="shared" si="0"/>
-        <v>949.18333333333339</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E49" s="7"/>
+        <v>922.4</v>
+      </c>
+      <c r="J48" s="1">
+        <v>907.68</v>
+      </c>
+      <c r="K48" s="1">
+        <v>910.58</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48">
+        <f t="shared" si="0"/>
+        <v>914.96600000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E49" s="13"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" t="e">
+        <v>72</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E50" s="8"/>
+    <row r="50" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E50" s="13"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E51" s="14">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E52" s="14"/>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E53" s="14"/>
+      <c r="F53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E54" s="14"/>
+      <c r="F54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E55" s="14"/>
+      <c r="F55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2680</v>
+      </c>
+      <c r="H55" s="2">
+        <v>2690</v>
+      </c>
+      <c r="I55" s="2">
+        <v>2690</v>
+      </c>
+      <c r="J55" s="2">
+        <v>2640</v>
+      </c>
+      <c r="K55" s="2">
+        <v>2700</v>
+      </c>
+      <c r="L55" s="2">
+        <v>2670</v>
+      </c>
+      <c r="M55" s="2">
+        <v>2780</v>
+      </c>
+      <c r="N55" s="2">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="56" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E56" s="14"/>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E57" s="14"/>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2">
+        <v>3470</v>
+      </c>
+      <c r="H57" s="2">
+        <v>3470</v>
+      </c>
+      <c r="I57" s="2">
+        <v>3410</v>
+      </c>
+      <c r="J57" s="2">
+        <v>3260</v>
+      </c>
+      <c r="K57" s="2">
+        <v>3350</v>
+      </c>
+      <c r="L57" s="2">
+        <v>3320</v>
+      </c>
+      <c r="M57" s="2">
+        <v>3760</v>
+      </c>
+      <c r="N57" s="2">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="58" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E58" s="14"/>
+      <c r="F58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2">
+        <v>3120</v>
+      </c>
+      <c r="H58" s="2">
+        <v>3130</v>
+      </c>
+      <c r="I58" s="2">
+        <v>3140</v>
+      </c>
+      <c r="J58" s="2">
+        <v>3070</v>
+      </c>
+      <c r="K58" s="2">
+        <v>3130</v>
+      </c>
+      <c r="L58" s="2">
+        <v>3100</v>
+      </c>
+      <c r="M58" s="2">
+        <v>3170</v>
+      </c>
+      <c r="N58" s="2">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="59" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E59" s="14"/>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>3140</v>
+      </c>
+      <c r="H59" s="2">
+        <v>3140</v>
+      </c>
+      <c r="I59" s="2">
+        <v>3160</v>
+      </c>
+      <c r="J59" s="2">
+        <v>3090</v>
+      </c>
+      <c r="K59" s="2">
+        <v>3150</v>
+      </c>
+      <c r="L59" s="2">
+        <v>3110</v>
+      </c>
+      <c r="M59" s="2">
+        <v>3190</v>
+      </c>
+      <c r="N59" s="2">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="60" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E60" s="14"/>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2">
+        <v>913359</v>
+      </c>
+      <c r="H60" s="2">
+        <v>911493</v>
+      </c>
+      <c r="I60" s="2">
+        <v>910473</v>
+      </c>
+      <c r="J60" s="2">
+        <v>921689</v>
+      </c>
+      <c r="K60" s="2">
+        <v>908252</v>
+      </c>
+      <c r="L60" s="2">
+        <v>915518</v>
+      </c>
+      <c r="M60" s="2">
+        <v>889977</v>
+      </c>
+      <c r="N60" s="2">
+        <v>917492</v>
+      </c>
+    </row>
+    <row r="61" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E61" s="14"/>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="H61" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="I61" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="J61" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="K61" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="L61" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="M61" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="N61" s="2">
+        <v>960.6</v>
+      </c>
+    </row>
+    <row r="62" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E62" s="14"/>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>950.74</v>
+      </c>
+      <c r="H62" s="2">
+        <v>948.97</v>
+      </c>
+      <c r="I62" s="2">
+        <v>947.84</v>
+      </c>
+      <c r="J62" s="2">
+        <v>959.62</v>
+      </c>
+      <c r="K62" s="2">
+        <v>945.2</v>
+      </c>
+      <c r="L62" s="2">
+        <v>952.81</v>
+      </c>
+      <c r="M62" s="2">
+        <v>926.31</v>
+      </c>
+      <c r="N62" s="2">
+        <v>955.11</v>
+      </c>
+    </row>
+    <row r="63" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E63" s="14"/>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E64" s="14"/>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="L51" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E7:K7"/>
+  <mergeCells count="5">
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7359,32 +8338,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB6DA92-7223-446A-BEE3-0FF2B848B2A6}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:O64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="3" t="s">
+    <row r="7" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -7406,9 +8388,18 @@
       <c r="K8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="6">
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7</v>
+      </c>
+      <c r="N8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E9" s="12">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -7429,9 +8420,18 @@
       <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
+      <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E10" s="12"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -7450,9 +8450,18 @@
       <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
+      <c r="L10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E11" s="12"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
@@ -7471,9 +8480,18 @@
       <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
+      <c r="L11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E12" s="12"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
@@ -7492,9 +8510,18 @@
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
+      <c r="L12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E13" s="12"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
@@ -7507,15 +8534,28 @@
       <c r="I13" s="1">
         <v>3.53</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13">
-        <f>AVERAGE(G13:I13)</f>
-        <v>3.2733333333333334</v>
-      </c>
-    </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="7"/>
+      <c r="J13" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3.31</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3.31</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3.38</v>
+      </c>
+      <c r="O13">
+        <f>AVERAGE(G13:N13)</f>
+        <v>3.3049999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E14" s="12"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
@@ -7528,15 +8568,28 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14">
-        <f t="shared" ref="L14:L50" si="0">AVERAGE(G14:I14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="7"/>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O50" si="0">AVERAGE(G14:N14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E15" s="12"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
@@ -7549,15 +8602,28 @@
       <c r="I15" s="1">
         <v>151.69999999999999</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="7"/>
+      <c r="J15" s="1">
+        <v>142.72999999999999</v>
+      </c>
+      <c r="K15" s="1">
+        <v>132.47999999999999</v>
+      </c>
+      <c r="L15" s="1">
+        <v>145.62</v>
+      </c>
+      <c r="M15" s="1">
+        <v>132.88999999999999</v>
+      </c>
+      <c r="N15" s="1">
+        <v>37.54</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>129.7825</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E16" s="12"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
@@ -7570,15 +8636,28 @@
       <c r="I16" s="1">
         <v>6.14</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>5.4833333333333334</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="7"/>
+      <c r="J16" s="1">
+        <v>5.66</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5.51</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>5.5274999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E17" s="12"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
@@ -7591,15 +8670,28 @@
       <c r="I17" s="1">
         <v>7.31</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>6.4499999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="7"/>
+      <c r="J17" s="1">
+        <v>6.61</v>
+      </c>
+      <c r="K17" s="1">
+        <v>6.43</v>
+      </c>
+      <c r="L17" s="1">
+        <v>6.42</v>
+      </c>
+      <c r="M17" s="1">
+        <v>6.48</v>
+      </c>
+      <c r="N17" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>6.486250000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E18" s="12"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
@@ -7612,15 +8704,28 @@
       <c r="I18" s="1">
         <v>83779</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>83800</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="7"/>
+      <c r="J18" s="1">
+        <v>83792</v>
+      </c>
+      <c r="K18" s="1">
+        <v>83796</v>
+      </c>
+      <c r="L18" s="1">
+        <v>83793</v>
+      </c>
+      <c r="M18" s="1">
+        <v>83793</v>
+      </c>
+      <c r="N18" s="1">
+        <v>83786</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>83795</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E19" s="12"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
@@ -7633,15 +8738,28 @@
       <c r="I19" s="1">
         <v>961</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>960.69999999999993</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="7"/>
+      <c r="J19" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="K19" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="L19" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="M19" s="1">
+        <v>960.4</v>
+      </c>
+      <c r="N19" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>960.62500000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E20" s="12"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
@@ -7654,15 +8772,28 @@
       <c r="I20" s="1">
         <v>87.18</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20">
-        <f t="shared" si="0"/>
+      <c r="J20" s="1">
+        <v>87.22</v>
+      </c>
+      <c r="K20" s="1">
         <v>87.23</v>
       </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="7"/>
+      <c r="L20" s="1">
+        <v>87.23</v>
+      </c>
+      <c r="M20" s="1">
+        <v>87.25</v>
+      </c>
+      <c r="N20" s="1">
+        <v>87.22</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>87.23</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E21" s="12"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
@@ -7675,15 +8806,28 @@
       <c r="I21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" t="e">
+      <c r="J21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="8"/>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E22" s="12"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
@@ -7696,15 +8840,28 @@
       <c r="I22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" t="e">
+      <c r="J22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="6">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E23" s="12">
         <v>1000</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -7725,13 +8882,22 @@
       <c r="K23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L23" t="e">
+      <c r="L23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="7"/>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E24" s="12"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
@@ -7750,13 +8916,22 @@
       <c r="K24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L24" t="e">
+      <c r="L24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="7"/>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E25" s="12"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
@@ -7775,13 +8950,22 @@
       <c r="K25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L25" t="e">
+      <c r="L25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="7"/>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E26" s="12"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
@@ -7800,13 +8984,22 @@
       <c r="K26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L26" t="e">
+      <c r="L26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="7"/>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E27" s="12"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
@@ -7819,15 +9012,28 @@
       <c r="I27" s="2">
         <v>3.6</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>3.6366666666666667</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="7"/>
+      <c r="J27" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="L27" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="M27" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="N27" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>3.3050000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E28" s="12"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
@@ -7840,15 +9046,28 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="7"/>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E29" s="12"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
@@ -7861,15 +9080,28 @@
       <c r="I29" s="2">
         <v>69.260000000000005</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>113.68333333333332</v>
-      </c>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E30" s="7"/>
+      <c r="J29" s="2">
+        <v>134.86000000000001</v>
+      </c>
+      <c r="K29" s="2">
+        <v>43.3</v>
+      </c>
+      <c r="L29" s="2">
+        <v>42.29</v>
+      </c>
+      <c r="M29" s="2">
+        <v>137.72</v>
+      </c>
+      <c r="N29" s="2">
+        <v>146.15</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>105.67124999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E30" s="12"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
@@ -7882,15 +9114,28 @@
       <c r="I30" s="2">
         <v>6.66</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>6.7366666666666672</v>
-      </c>
-    </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E31" s="7"/>
+      <c r="J30" s="2">
+        <v>5.47</v>
+      </c>
+      <c r="K30" s="2">
+        <v>5.09</v>
+      </c>
+      <c r="L30" s="2">
+        <v>5.33</v>
+      </c>
+      <c r="M30" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="N30" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E31" s="12"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
@@ -7903,15 +9148,28 @@
       <c r="I31" s="2">
         <v>8.6300000000000008</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>8.8733333333333348</v>
-      </c>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E32" s="7"/>
+      <c r="J31" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="L31" s="2">
+        <v>6.92</v>
+      </c>
+      <c r="M31" s="2">
+        <v>7.43</v>
+      </c>
+      <c r="N31" s="2">
+        <v>7.62</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>7.7487500000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E32" s="12"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
@@ -7924,15 +9182,28 @@
       <c r="I32" s="2">
         <v>837206</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>837182</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E33" s="7"/>
+      <c r="J32" s="2">
+        <v>837620</v>
+      </c>
+      <c r="K32" s="2">
+        <v>837798</v>
+      </c>
+      <c r="L32" s="2">
+        <v>837678</v>
+      </c>
+      <c r="M32" s="2">
+        <v>837554</v>
+      </c>
+      <c r="N32" s="2">
+        <v>837507</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>837462.875</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E33" s="12"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
@@ -7945,15 +9216,28 @@
       <c r="I33" s="2">
         <v>960.7</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>960.76666666666677</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E34" s="7"/>
+      <c r="J33" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="K33" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="L33" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="M33" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="N33" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>960.62500000000011</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E34" s="12"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
@@ -7966,15 +9250,28 @@
       <c r="I34" s="2">
         <v>881.41</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>874.67666666666662</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E35" s="7"/>
+      <c r="J34" s="2">
+        <v>872.03</v>
+      </c>
+      <c r="K34" s="2">
+        <v>872.28</v>
+      </c>
+      <c r="L34" s="2">
+        <v>872.15</v>
+      </c>
+      <c r="M34" s="2">
+        <v>871.88</v>
+      </c>
+      <c r="N34" s="2">
+        <v>871.86</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>873.02874999999983</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E35" s="12"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
@@ -7987,15 +9284,28 @@
       <c r="I35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" t="e">
+      <c r="J35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E36" s="8"/>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E36" s="12"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
@@ -8008,16 +9318,29 @@
       <c r="I36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" t="e">
+      <c r="J36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E37" s="6">
-        <v>4000</v>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E37" s="12">
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -8037,13 +9360,22 @@
       <c r="K37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L37" t="e">
+      <c r="L37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E38" s="7"/>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E38" s="12"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
@@ -8062,13 +9394,22 @@
       <c r="K38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L38" t="e">
+      <c r="L38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E39" s="7"/>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E39" s="12"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
@@ -8087,13 +9428,22 @@
       <c r="K39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L39" t="e">
+      <c r="L39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E40" s="7"/>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E40" s="12"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
@@ -8112,34 +9462,50 @@
       <c r="K40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L40" t="e">
+      <c r="L40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E41" s="7"/>
+    <row r="41" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E41" s="12"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>2210</v>
+        <v>730.54</v>
       </c>
       <c r="H41" s="1">
-        <v>2210</v>
+        <v>759.08</v>
       </c>
       <c r="I41" s="1">
-        <v>2210</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E42" s="7"/>
+        <v>716.8</v>
+      </c>
+      <c r="J41" s="1">
+        <v>699.54</v>
+      </c>
+      <c r="K41" s="1">
+        <v>712.37</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>723.66599999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E42" s="12"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
@@ -8152,187 +9518,653 @@
       <c r="I42" s="1">
         <v>0</v>
       </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E43" s="7"/>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E43" s="12"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>3280</v>
+        <v>1150</v>
       </c>
       <c r="H43" s="1">
-        <v>3100</v>
+        <v>1260</v>
       </c>
       <c r="I43" s="1">
-        <v>3030</v>
-      </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>3136.6666666666665</v>
-      </c>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E44" s="7"/>
+        <v>1250</v>
+      </c>
+      <c r="J43" s="1">
+        <v>970.64</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1040</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43">
+        <f t="shared" si="0"/>
+        <v>1134.1280000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E44" s="12"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>2580</v>
+        <v>880.89</v>
       </c>
       <c r="H44" s="1">
-        <v>2580</v>
+        <v>917.05</v>
       </c>
       <c r="I44" s="1">
-        <v>2580</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E45" s="7"/>
+        <v>883.29</v>
+      </c>
+      <c r="J44" s="1">
+        <v>840.74</v>
+      </c>
+      <c r="K44" s="1">
+        <v>851.78</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>874.75</v>
+      </c>
+    </row>
+    <row r="45" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E45" s="12"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>2610</v>
+        <v>896.9</v>
       </c>
       <c r="H45" s="1">
-        <v>2600</v>
+        <v>937.25</v>
       </c>
       <c r="I45" s="1">
-        <v>2600</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>2603.3333333333335</v>
-      </c>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="7"/>
+        <v>902.69</v>
+      </c>
+      <c r="J45" s="1">
+        <v>851.25</v>
+      </c>
+      <c r="K45" s="1">
+        <v>863.83</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>890.38400000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E46" s="12"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1045859</v>
+        <v>971338</v>
       </c>
       <c r="H46" s="1">
-        <v>1046268</v>
+        <v>955572</v>
       </c>
       <c r="I46" s="1">
-        <v>1046261</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>1046129.3333333334</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E47" s="7"/>
+        <v>979085</v>
+      </c>
+      <c r="J46" s="1">
+        <v>989029</v>
+      </c>
+      <c r="K46" s="1">
+        <v>981617</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46">
+        <f t="shared" si="0"/>
+        <v>975328.2</v>
+      </c>
+    </row>
+    <row r="47" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E47" s="12"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="H47" s="1">
+        <v>961</v>
+      </c>
+      <c r="I47" s="1">
         <v>960.8</v>
       </c>
-      <c r="H47" s="1">
+      <c r="J47" s="1">
         <v>960.8</v>
       </c>
-      <c r="I47" s="1">
-        <v>960.9</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>960.83333333333337</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E48" s="7"/>
+      <c r="K47" s="1">
+        <v>960.4</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>960.78</v>
+      </c>
+    </row>
+    <row r="48" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E48" s="12"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1088.48</v>
+        <v>1010.89</v>
       </c>
       <c r="H48" s="1">
-        <v>1088.9100000000001</v>
+        <v>994.36</v>
       </c>
       <c r="I48" s="1">
-        <v>1088.8599999999999</v>
-      </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48">
-        <f t="shared" si="0"/>
-        <v>1088.75</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E49" s="7"/>
+        <v>1019.01</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1029.3399999999999</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1022.09</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48">
+        <f t="shared" si="0"/>
+        <v>1015.1380000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E49" s="12"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" t="e">
+      <c r="J49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E50" s="8"/>
+    <row r="50" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E50" s="12"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E51" s="12">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E52" s="12"/>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E53" s="12"/>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E54" s="12"/>
+      <c r="F54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E55" s="12"/>
+      <c r="F55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2210</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2210</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2210</v>
+      </c>
+      <c r="J55" s="1">
+        <v>2350</v>
+      </c>
+      <c r="K55" s="1">
+        <v>2300</v>
+      </c>
+      <c r="L55" s="1">
+        <v>2190</v>
+      </c>
+      <c r="M55" s="1">
+        <v>2200</v>
+      </c>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E56" s="12"/>
+      <c r="F56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E57" s="12"/>
+      <c r="F57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3280</v>
+      </c>
+      <c r="H57" s="1">
+        <v>3100</v>
+      </c>
+      <c r="I57" s="1">
+        <v>3030</v>
+      </c>
+      <c r="J57" s="1">
+        <v>3220</v>
+      </c>
+      <c r="K57" s="1">
+        <v>3270</v>
+      </c>
+      <c r="L57" s="1">
+        <v>2790</v>
+      </c>
+      <c r="M57" s="1">
+        <v>2830</v>
+      </c>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E58" s="12"/>
+      <c r="F58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2580</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2580</v>
+      </c>
+      <c r="I58" s="1">
+        <v>2580</v>
+      </c>
+      <c r="J58" s="1">
+        <v>2920</v>
+      </c>
+      <c r="K58" s="1">
+        <v>2680</v>
+      </c>
+      <c r="L58" s="1">
+        <v>2550</v>
+      </c>
+      <c r="M58" s="1">
+        <v>2570</v>
+      </c>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E59" s="12"/>
+      <c r="F59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2610</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2600</v>
+      </c>
+      <c r="I59" s="1">
+        <v>2600</v>
+      </c>
+      <c r="J59" s="1">
+        <v>2970</v>
+      </c>
+      <c r="K59" s="1">
+        <v>2930</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2560</v>
+      </c>
+      <c r="M59" s="1">
+        <v>2580</v>
+      </c>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E60" s="12"/>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1045859</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1046268</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1046261</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1002490</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1018690</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1052605</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1048802</v>
+      </c>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E61" s="12"/>
+      <c r="F61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="H61" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="I61" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="J61" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="K61" s="1">
+        <v>961</v>
+      </c>
+      <c r="L61" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="M61" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E62" s="12"/>
+      <c r="F62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1088.48</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1088.9100000000001</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1088.8599999999999</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1043.7</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1060.04</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1095.3900000000001</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1091.98</v>
+      </c>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E63" s="12"/>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E64" s="12"/>
+      <c r="F64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E7:K7"/>
+  <mergeCells count="5">
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Wyniki 3/S4.xlsx
+++ b/Wyniki 3/S4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0016424-2A51-4AC0-B8A4-CD7E768EADFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C526F03-30B1-47B0-B617-EE41A86F5B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="100">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -298,6 +298,51 @@
   <si>
     <t>788MB</t>
   </si>
+  <si>
+    <t>809MB</t>
+  </si>
+  <si>
+    <t>812MB</t>
+  </si>
+  <si>
+    <t>815MB</t>
+  </si>
+  <si>
+    <t>811MB</t>
+  </si>
+  <si>
+    <t>285MB</t>
+  </si>
+  <si>
+    <t>278MB</t>
+  </si>
+  <si>
+    <t>273MB</t>
+  </si>
+  <si>
+    <t>274MB</t>
+  </si>
+  <si>
+    <t>277MB</t>
+  </si>
+  <si>
+    <t>2,8GB</t>
+  </si>
+  <si>
+    <t>125MB</t>
+  </si>
+  <si>
+    <t>2,9GB</t>
+  </si>
+  <si>
+    <t>126MB</t>
+  </si>
+  <si>
+    <t>127MB</t>
+  </si>
+  <si>
+    <t>128MB</t>
+  </si>
 </sst>
 </file>
 
@@ -439,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,6 +508,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,20 +1062,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="D27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1032,7 +1086,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -1082,7 +1136,7 @@
         <v>8.9879999999999995</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>33</v>
@@ -1107,7 +1161,7 @@
         <v>158.244</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -1132,7 +1186,7 @@
         <v>14.639999999999997</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -1157,7 +1211,7 @@
         <v>16.911999999999999</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -1182,7 +1236,7 @@
         <v>1.0760000000000001</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -1207,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -1232,7 +1286,7 @@
         <v>148.53400000000002</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -1257,7 +1311,7 @@
         <v>1.9439999999999997</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -1282,7 +1336,7 @@
         <v>2.2559999999999998</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -1307,7 +1361,7 @@
         <v>666660.80000000005</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -1332,7 +1386,7 @@
         <v>960.48000000000013</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -1357,7 +1411,7 @@
         <v>694.0920000000001</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -1382,7 +1436,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -1407,7 +1461,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -1434,7 +1488,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>33</v>
@@ -1459,7 +1513,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>36</v>
@@ -1484,7 +1538,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>37</v>
@@ -1509,7 +1563,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -1534,7 +1588,7 @@
         <v>133.90200000000002</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -1559,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -1584,7 +1638,7 @@
         <v>231.58800000000002</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -1609,7 +1663,7 @@
         <v>162.11399999999998</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -1634,7 +1688,7 @@
         <v>165.256</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -1659,7 +1713,7 @@
         <v>3246339.2</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -1684,7 +1738,7 @@
         <v>960.62000000000012</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -1709,7 +1763,7 @@
         <v>3379.3659999999995</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -1734,7 +1788,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1759,134 +1813,134 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G37" s="1">
-        <v>7120</v>
+        <v>3360</v>
       </c>
       <c r="H37" s="1">
-        <v>7090</v>
+        <v>3470</v>
       </c>
       <c r="I37" s="1">
-        <v>7010</v>
+        <v>3550</v>
       </c>
       <c r="J37" s="1">
-        <v>7150</v>
+        <v>3540</v>
       </c>
       <c r="K37" s="1">
-        <v>7060</v>
+        <v>3480</v>
       </c>
       <c r="L37">
         <f t="shared" si="0"/>
-        <v>7086</v>
-      </c>
-    </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G38" s="1">
-        <v>8500</v>
+        <v>4380</v>
       </c>
       <c r="H38" s="1">
-        <v>8370</v>
+        <v>4550</v>
       </c>
       <c r="I38" s="1">
-        <v>8370</v>
+        <v>5210</v>
       </c>
       <c r="J38" s="1">
-        <v>8580</v>
+        <v>4320</v>
       </c>
       <c r="K38" s="1">
-        <v>8400</v>
+        <v>4130</v>
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
-        <v>8444</v>
-      </c>
-    </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G39" s="1">
-        <v>8190</v>
+        <v>3950</v>
       </c>
       <c r="H39" s="1">
-        <v>8150</v>
+        <v>4020</v>
       </c>
       <c r="I39" s="1">
-        <v>8060</v>
+        <v>4150</v>
       </c>
       <c r="J39" s="1">
-        <v>8230</v>
+        <v>4110</v>
       </c>
       <c r="K39" s="1">
-        <v>8110</v>
+        <v>4030</v>
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
-        <v>8148</v>
-      </c>
-    </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G40" s="1">
-        <v>8210</v>
+        <v>4020</v>
       </c>
       <c r="H40" s="1">
-        <v>8160</v>
+        <v>4040</v>
       </c>
       <c r="I40" s="1">
-        <v>8080</v>
+        <v>4330</v>
       </c>
       <c r="J40" s="1">
-        <v>8250</v>
+        <v>4130</v>
       </c>
       <c r="K40" s="1">
-        <v>8130</v>
+        <v>4040</v>
       </c>
       <c r="L40">
         <f t="shared" si="0"/>
-        <v>8166</v>
-      </c>
-    </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>890.47</v>
+        <v>420.92</v>
       </c>
       <c r="H41" s="1">
-        <v>886.61</v>
+        <v>434.56</v>
       </c>
       <c r="I41" s="1">
-        <v>877.06</v>
+        <v>444.47</v>
       </c>
       <c r="J41" s="1">
-        <v>894.35</v>
+        <v>442.94</v>
       </c>
       <c r="K41" s="1">
-        <v>883.19</v>
+        <v>435.56</v>
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>886.33600000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
+        <v>435.69000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -1911,212 +1965,509 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>1240</v>
+        <v>638.28</v>
       </c>
       <c r="H43" s="1">
-        <v>1150</v>
+        <v>612.02</v>
       </c>
       <c r="I43" s="1">
-        <v>1170</v>
+        <v>708.56</v>
       </c>
       <c r="J43" s="1">
-        <v>1280</v>
+        <v>640.74</v>
       </c>
       <c r="K43" s="1">
-        <v>1200</v>
+        <v>559.87</v>
       </c>
       <c r="L43">
         <f t="shared" si="0"/>
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
+        <v>631.89400000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>1030</v>
+        <v>501.84</v>
       </c>
       <c r="H44" s="1">
-        <v>1030</v>
+        <v>511.99</v>
       </c>
       <c r="I44" s="1">
-        <v>1010</v>
+        <v>525.35</v>
       </c>
       <c r="J44" s="1">
-        <v>1040</v>
+        <v>523.42999999999995</v>
       </c>
       <c r="K44" s="1">
-        <v>1020</v>
+        <v>513.87</v>
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
+        <v>515.29599999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>1040</v>
+        <v>511.19</v>
       </c>
       <c r="H45" s="1">
-        <v>1030</v>
+        <v>518.09</v>
       </c>
       <c r="I45" s="1">
-        <v>1020</v>
+        <v>544.37</v>
       </c>
       <c r="J45" s="1">
-        <v>1040</v>
+        <v>528.37</v>
       </c>
       <c r="K45" s="1">
-        <v>1030</v>
+        <v>518.4</v>
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
+        <v>524.08400000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>3317664</v>
+        <v>3081504</v>
       </c>
       <c r="H46" s="1">
-        <v>3330520</v>
+        <v>3006472</v>
       </c>
       <c r="I46" s="1">
-        <v>3362016</v>
+        <v>2954376</v>
       </c>
       <c r="J46" s="1">
-        <v>3305168</v>
+        <v>2962176</v>
       </c>
       <c r="K46" s="1">
-        <v>3341616</v>
+        <v>3001096</v>
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>3331396.8</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
+        <v>3001124.8</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="1">
-        <v>960.6</v>
+        <v>960.7</v>
       </c>
       <c r="H47" s="1">
-        <v>960.9</v>
+        <v>960.5</v>
       </c>
       <c r="I47" s="1">
         <v>960.7</v>
       </c>
       <c r="J47" s="1">
-        <v>960.8</v>
+        <v>960.7</v>
       </c>
       <c r="K47" s="1">
-        <v>960.6</v>
+        <v>960.7</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>960.72</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
+        <v>960.66000000000008</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>3453.76</v>
+        <v>3207.73</v>
       </c>
       <c r="H48" s="1">
-        <v>3466.22</v>
+        <v>3130.28</v>
       </c>
       <c r="I48" s="1">
-        <v>3499.7</v>
+        <v>3075.36</v>
       </c>
       <c r="J48" s="1">
-        <v>3439.87</v>
+        <v>3083.43</v>
       </c>
       <c r="K48" s="1">
-        <v>3478.65</v>
+        <v>3123.71</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>3467.6400000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
+        <v>3124.1020000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="2">
+        <v>7120</v>
+      </c>
+      <c r="H51" s="2">
+        <v>7090</v>
+      </c>
+      <c r="I51" s="2">
+        <v>7010</v>
+      </c>
+      <c r="J51" s="2">
+        <v>7150</v>
+      </c>
+      <c r="K51" s="2">
+        <v>7060</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="10"/>
+      <c r="F52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="2">
+        <v>8500</v>
+      </c>
+      <c r="H52" s="2">
+        <v>8370</v>
+      </c>
+      <c r="I52" s="2">
+        <v>8370</v>
+      </c>
+      <c r="J52" s="2">
+        <v>8580</v>
+      </c>
+      <c r="K52" s="2">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="10"/>
+      <c r="F53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="2">
+        <v>8190</v>
+      </c>
+      <c r="H53" s="2">
+        <v>8150</v>
+      </c>
+      <c r="I53" s="2">
+        <v>8060</v>
+      </c>
+      <c r="J53" s="2">
+        <v>8230</v>
+      </c>
+      <c r="K53" s="2">
+        <v>8110</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="10"/>
+      <c r="F54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="2">
+        <v>8210</v>
+      </c>
+      <c r="H54" s="2">
+        <v>8160</v>
+      </c>
+      <c r="I54" s="2">
+        <v>8080</v>
+      </c>
+      <c r="J54" s="2">
+        <v>8250</v>
+      </c>
+      <c r="K54" s="2">
+        <v>8130</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="10"/>
+      <c r="F55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>890.47</v>
+      </c>
+      <c r="H55" s="2">
+        <v>886.61</v>
+      </c>
+      <c r="I55" s="2">
+        <v>877.06</v>
+      </c>
+      <c r="J55" s="2">
+        <v>894.35</v>
+      </c>
+      <c r="K55" s="2">
+        <v>883.19</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="10"/>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="10"/>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1240</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1150</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1170</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1280</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="10"/>
+      <c r="F58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1030</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1030</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1010</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1040</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="10"/>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1040</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1030</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1020</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1040</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="10"/>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2">
+        <v>3317664</v>
+      </c>
+      <c r="H60" s="2">
+        <v>3330520</v>
+      </c>
+      <c r="I60" s="2">
+        <v>3362016</v>
+      </c>
+      <c r="J60" s="2">
+        <v>3305168</v>
+      </c>
+      <c r="K60" s="2">
+        <v>3341616</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="10"/>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="H61" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="I61" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="J61" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="K61" s="2">
+        <v>960.6</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="10"/>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>3453.76</v>
+      </c>
+      <c r="H62" s="2">
+        <v>3466.22</v>
+      </c>
+      <c r="I62" s="2">
+        <v>3499.7</v>
+      </c>
+      <c r="J62" s="2">
+        <v>3439.87</v>
+      </c>
+      <c r="K62" s="2">
+        <v>3478.65</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="10"/>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="11"/>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J64" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K64" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L50" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2124,20 +2475,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E427240-8CAA-40AB-9EE3-C007F0D8C5C2}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2148,7 +2499,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2171,7 +2522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>100</v>
       </c>
@@ -2194,7 +2545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -2215,7 +2566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
@@ -2236,7 +2587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -2257,7 +2608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -2282,7 +2633,7 @@
         <v>2.6559999999999997</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
@@ -2307,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E15" s="7"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -2332,7 +2683,7 @@
         <v>128.626</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -2357,7 +2708,7 @@
         <v>3.9140000000000001</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -2382,7 +2733,7 @@
         <v>4.5419999999999998</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="7"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -2407,7 +2758,7 @@
         <v>83853.399999999994</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
@@ -2432,7 +2783,7 @@
         <v>960.76</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -2457,7 +2808,7 @@
         <v>87.275999999999996</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -2482,7 +2833,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -2507,7 +2858,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <v>1000</v>
       </c>
@@ -2534,7 +2885,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
@@ -2559,7 +2910,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
@@ -2584,7 +2935,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -2609,7 +2960,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -2634,7 +2985,7 @@
         <v>1.9419999999999997</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
@@ -2659,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
@@ -2684,7 +3035,7 @@
         <v>133.47200000000001</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
@@ -2709,7 +3060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
@@ -2734,7 +3085,7 @@
         <v>3.8359999999999999</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
@@ -2759,7 +3110,7 @@
         <v>838619.8</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -2784,7 +3135,7 @@
         <v>960.56000000000006</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -2809,7 +3160,7 @@
         <v>873.08199999999999</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -2834,7 +3185,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -2859,9 +3210,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="6">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -2886,7 +3237,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38" s="7"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -2911,7 +3262,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="7"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -2936,7 +3287,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40" s="7"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
@@ -2961,32 +3312,32 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>1560</v>
+        <v>435.56</v>
       </c>
       <c r="H41" s="1">
-        <v>1580</v>
+        <v>424.7</v>
       </c>
       <c r="I41" s="1">
-        <v>1560</v>
+        <v>420.25</v>
       </c>
       <c r="J41" s="1">
-        <v>1500</v>
+        <v>406.82</v>
       </c>
       <c r="K41" s="1">
-        <v>1520</v>
+        <v>414.81</v>
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
+        <v>420.428</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42" s="7"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
@@ -3011,212 +3362,509 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="7"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>2100</v>
+        <v>582.57000000000005</v>
       </c>
       <c r="H43" s="1">
-        <v>2000</v>
+        <v>680.04</v>
       </c>
       <c r="I43" s="1">
-        <v>1990</v>
+        <v>558.47</v>
       </c>
       <c r="J43" s="1">
-        <v>1900</v>
+        <v>540.36</v>
       </c>
       <c r="K43" s="1">
-        <v>1960</v>
+        <v>601</v>
       </c>
       <c r="L43">
         <f t="shared" si="0"/>
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
+        <v>592.48800000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="7"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>1820</v>
+        <v>518.02</v>
       </c>
       <c r="H44" s="1">
-        <v>1840</v>
+        <v>504.91</v>
       </c>
       <c r="I44" s="1">
-        <v>1820</v>
+        <v>499.4</v>
       </c>
       <c r="J44" s="1">
-        <v>1750</v>
+        <v>484.99</v>
       </c>
       <c r="K44" s="1">
-        <v>1760</v>
+        <v>493.2</v>
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
+        <v>500.10399999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>1840</v>
+        <v>522.84</v>
       </c>
       <c r="H45" s="1">
-        <v>1850</v>
+        <v>511.66</v>
       </c>
       <c r="I45" s="1">
-        <v>1830</v>
+        <v>505.3</v>
       </c>
       <c r="J45" s="1">
-        <v>1770</v>
+        <v>492.78</v>
       </c>
       <c r="K45" s="1">
-        <v>1770</v>
+        <v>501.82</v>
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
+        <v>506.88</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46" s="7"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1309204</v>
+        <v>1170795</v>
       </c>
       <c r="H46" s="1">
-        <v>1301619</v>
+        <v>1179716</v>
       </c>
       <c r="I46" s="1">
-        <v>1310174</v>
+        <v>1183410</v>
       </c>
       <c r="J46" s="1">
-        <v>1340088</v>
+        <v>1194696</v>
       </c>
       <c r="K46" s="1">
-        <v>1333974</v>
+        <v>1187955</v>
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>1319011.8</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
+        <v>1183314.3999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47" s="7"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="H47" s="1">
         <v>960.8</v>
-      </c>
-      <c r="H47" s="1">
-        <v>961</v>
       </c>
       <c r="I47" s="1">
         <v>960.8</v>
       </c>
       <c r="J47" s="1">
-        <v>960.6</v>
+        <v>960.5</v>
       </c>
       <c r="K47" s="1">
-        <v>960.9</v>
+        <v>960.7</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>960.81999999999994</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
+        <v>960.66000000000008</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48" s="7"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1362.58</v>
+        <v>1218.9000000000001</v>
       </c>
       <c r="H48" s="1">
-        <v>1354.46</v>
+        <v>1227.9000000000001</v>
       </c>
       <c r="I48" s="1">
-        <v>1363.64</v>
+        <v>1231.67</v>
       </c>
       <c r="J48" s="1">
-        <v>1395.11</v>
+        <v>1243.8800000000001</v>
       </c>
       <c r="K48" s="1">
-        <v>1388.2</v>
+        <v>1236.57</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>1372.798</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
+        <v>1231.7840000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="7"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="8"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="10"/>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="10"/>
+      <c r="F53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="10"/>
+      <c r="F54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="10"/>
+      <c r="F55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1560</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1580</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1560</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1500</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="10"/>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="10"/>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2100</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1990</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1900</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="10"/>
+      <c r="F58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1820</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1840</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1820</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1750</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="10"/>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1840</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1850</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1830</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1770</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="10"/>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1309204</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1301619</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1310174</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1340088</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1333974</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="10"/>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="H61" s="2">
+        <v>961</v>
+      </c>
+      <c r="I61" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="J61" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="K61" s="2">
+        <v>960.9</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="10"/>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1362.58</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1354.46</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1363.64</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1395.11</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1388.2</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="10"/>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="11"/>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J64" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K64" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L50" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3224,20 +3872,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCC0AA-C984-4903-81D8-D871D2663DA5}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="D29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView topLeftCell="D30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
-    <col min="7" max="11" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="11" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
@@ -3248,7 +3896,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3271,8 +3919,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E9" s="9">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="12">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -3294,8 +3942,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E10" s="10"/>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="13"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3315,8 +3963,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E11" s="10"/>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="13"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
@@ -3336,8 +3984,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E12" s="10"/>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="13"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
@@ -3357,8 +4005,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E13" s="10"/>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="13"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
@@ -3382,8 +4030,8 @@
         <v>3.3240000000000003</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E14" s="10"/>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="13"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3407,8 +4055,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E15" s="10"/>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="13"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
@@ -3432,8 +4080,8 @@
         <v>143.07400000000001</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E16" s="10"/>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="13"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
@@ -3457,8 +4105,8 @@
         <v>4.7279999999999998</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E17" s="10"/>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="13"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3482,8 +4130,8 @@
         <v>5.4420000000000002</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E18" s="10"/>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="13"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
@@ -3507,8 +4155,8 @@
         <v>83796.600000000006</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E19" s="10"/>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="13"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
@@ -3532,8 +4180,8 @@
         <v>960.64</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E20" s="10"/>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="13"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
@@ -3557,8 +4205,8 @@
         <v>87.227999999999994</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E21" s="10"/>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="13"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
@@ -3582,8 +4230,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E22" s="11"/>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="14"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
@@ -3607,8 +4255,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E23" s="9">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="12">
         <v>1000</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -3634,8 +4282,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E24" s="10"/>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="13"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
@@ -3659,8 +4307,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E25" s="10"/>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="13"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
@@ -3684,8 +4332,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E26" s="10"/>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="13"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
@@ -3709,8 +4357,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E27" s="10"/>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="13"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
@@ -3734,8 +4382,8 @@
         <v>2.7260000000000004</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E28" s="10"/>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="13"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
@@ -3759,8 +4407,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E29" s="10"/>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="13"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
@@ -3784,8 +4432,8 @@
         <v>124.354</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E30" s="10"/>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="13"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
@@ -3809,8 +4457,8 @@
         <v>4.1819999999999995</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E31" s="10"/>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="13"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
@@ -3834,8 +4482,8 @@
         <v>5.2939999999999996</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E32" s="10"/>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="13"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
@@ -3859,8 +4507,8 @@
         <v>837949.4</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E33" s="10"/>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="13"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
@@ -3884,8 +4532,8 @@
         <v>960.81999999999994</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E34" s="10"/>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="13"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
@@ -3909,8 +4557,8 @@
         <v>872.12400000000002</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E35" s="10"/>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="13"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
@@ -3934,8 +4582,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E36" s="11"/>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="14"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
@@ -3959,9 +4607,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E37" s="9">
-        <v>4000</v>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="12">
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -3986,8 +4634,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E38" s="10"/>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E38" s="13"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
@@ -4011,8 +4659,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E39" s="10"/>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E39" s="13"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
@@ -4036,8 +4684,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E40" s="10"/>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E40" s="13"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
@@ -4061,33 +4709,33 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E41" s="10"/>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E41" s="13"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>2290</v>
+        <v>839.15</v>
       </c>
       <c r="H41" s="1">
-        <v>2310</v>
+        <v>829.91</v>
       </c>
       <c r="I41" s="1">
-        <v>2300</v>
+        <v>831.86</v>
       </c>
       <c r="J41" s="1">
-        <v>2300</v>
+        <v>828.64</v>
       </c>
       <c r="K41" s="1">
-        <v>2310</v>
+        <v>832.6</v>
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>2302</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E42" s="10"/>
+        <v>832.43200000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E42" s="13"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
@@ -4111,208 +4759,505 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E43" s="10"/>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E43" s="13"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>2840</v>
+        <v>1080</v>
       </c>
       <c r="H43" s="1">
-        <v>2810</v>
+        <v>1150</v>
       </c>
       <c r="I43" s="1">
-        <v>2980</v>
+        <v>1120</v>
       </c>
       <c r="J43" s="1">
-        <v>2860</v>
+        <v>1070</v>
       </c>
       <c r="K43" s="1">
-        <v>2760</v>
+        <v>1020</v>
       </c>
       <c r="L43">
         <f t="shared" si="0"/>
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E44" s="10"/>
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="13"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>2650</v>
+        <v>984.99</v>
       </c>
       <c r="H44" s="1">
-        <v>2670</v>
+        <v>973.77</v>
       </c>
       <c r="I44" s="1">
-        <v>2670</v>
+        <v>975.87</v>
       </c>
       <c r="J44" s="1">
-        <v>2660</v>
-      </c>
-      <c r="K44" s="1"/>
+        <v>973.32</v>
+      </c>
+      <c r="K44" s="1">
+        <v>977.49</v>
+      </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>2662.5</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E45" s="10"/>
+        <v>977.08800000000008</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="13"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>2660</v>
+        <v>991.54</v>
       </c>
       <c r="H45" s="1">
-        <v>2680</v>
+        <v>980.21</v>
       </c>
       <c r="I45" s="1">
-        <v>2680</v>
+        <v>982.16</v>
       </c>
       <c r="J45" s="1">
-        <v>2670</v>
+        <v>979.76</v>
       </c>
       <c r="K45" s="1">
-        <v>2670</v>
+        <v>982.86</v>
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
-        <v>2672</v>
-      </c>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E46" s="10"/>
+        <v>983.30599999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="13"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1022201</v>
+        <v>913972</v>
       </c>
       <c r="H46" s="1">
-        <v>1016154</v>
+        <v>918588</v>
       </c>
       <c r="I46" s="1">
-        <v>1016985</v>
+        <v>917622</v>
       </c>
       <c r="J46" s="1">
-        <v>1017707</v>
-      </c>
-      <c r="K46" s="1"/>
+        <v>919216</v>
+      </c>
+      <c r="K46" s="1">
+        <v>917244</v>
+      </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>1018261.75</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E47" s="10"/>
+        <v>917328.4</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="13"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="H47" s="1">
         <v>960.8</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
+        <v>960.6</v>
+      </c>
+      <c r="J47" s="1">
         <v>960.7</v>
       </c>
-      <c r="I47" s="1">
-        <v>960.5</v>
-      </c>
-      <c r="J47" s="1">
-        <v>961</v>
-      </c>
       <c r="K47" s="1">
-        <v>960.7</v>
+        <v>960.6</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>960.74</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E48" s="10"/>
+        <v>960.66000000000008</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="13"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1063.93</v>
+        <v>951.44</v>
       </c>
       <c r="H48" s="1">
-        <v>1057.72</v>
+        <v>956.04</v>
       </c>
       <c r="I48" s="1">
-        <v>1058.76</v>
+        <v>955.28</v>
       </c>
       <c r="J48" s="1">
-        <v>1059.04</v>
+        <v>956.86</v>
       </c>
       <c r="K48" s="1">
-        <v>1057.73</v>
+        <v>954.83</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>1059.4360000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E49" s="10"/>
+        <v>954.8900000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E49" s="13"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E50" s="11"/>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E50" s="14"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="12">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="13"/>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="13"/>
+      <c r="F53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="13"/>
+      <c r="F54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="13"/>
+      <c r="F55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2290</v>
+      </c>
+      <c r="H55" s="2">
+        <v>2310</v>
+      </c>
+      <c r="I55" s="2">
+        <v>2300</v>
+      </c>
+      <c r="J55" s="2">
+        <v>2300</v>
+      </c>
+      <c r="K55" s="2">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="13"/>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="13"/>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2840</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2810</v>
+      </c>
+      <c r="I57" s="2">
+        <v>2980</v>
+      </c>
+      <c r="J57" s="2">
+        <v>2860</v>
+      </c>
+      <c r="K57" s="2">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="13"/>
+      <c r="F58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2650</v>
+      </c>
+      <c r="H58" s="2">
+        <v>2670</v>
+      </c>
+      <c r="I58" s="2">
+        <v>2670</v>
+      </c>
+      <c r="J58" s="2">
+        <v>2660</v>
+      </c>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="13"/>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2660</v>
+      </c>
+      <c r="H59" s="2">
+        <v>2680</v>
+      </c>
+      <c r="I59" s="2">
+        <v>2680</v>
+      </c>
+      <c r="J59" s="2">
+        <v>2670</v>
+      </c>
+      <c r="K59" s="2">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="13"/>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1022201</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1016154</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1016985</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1017707</v>
+      </c>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="13"/>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="H61" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="I61" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="J61" s="2">
+        <v>961</v>
+      </c>
+      <c r="K61" s="2">
+        <v>960.7</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="13"/>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1063.93</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1057.72</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1058.76</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1059.04</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1057.73</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="13"/>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="14"/>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J64" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K64" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L50" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4321,20 +5266,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33E3BDB-BD67-41A1-991C-2FB34B0212C5}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="E34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
@@ -4345,7 +5290,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4368,8 +5313,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E9" s="9">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="12">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -4391,8 +5336,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E10" s="10"/>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="13"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -4412,8 +5357,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E11" s="10"/>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="13"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
@@ -4433,8 +5378,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E12" s="10"/>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="13"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
@@ -4454,8 +5399,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E13" s="10"/>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="13"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
@@ -4479,8 +5424,8 @@
         <v>3.3860000000000001</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E14" s="10"/>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="13"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4504,8 +5449,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E15" s="10"/>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="13"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
@@ -4529,8 +5474,8 @@
         <v>118.61599999999999</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E16" s="10"/>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="13"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
@@ -4554,8 +5499,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E17" s="10"/>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="13"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
@@ -4579,8 +5524,8 @@
         <v>5.7379999999999995</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E18" s="10"/>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="13"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
@@ -4604,8 +5549,8 @@
         <v>83791.399999999994</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E19" s="10"/>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="13"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
@@ -4629,8 +5574,8 @@
         <v>960.65999999999985</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E20" s="10"/>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="13"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
@@ -4654,8 +5599,8 @@
         <v>87.224000000000004</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E21" s="10"/>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="13"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
@@ -4679,8 +5624,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E22" s="11"/>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="14"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
@@ -4704,8 +5649,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E23" s="9">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="12">
         <v>1000</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -4731,8 +5676,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E24" s="10"/>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="13"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
@@ -4756,8 +5701,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E25" s="10"/>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="13"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
@@ -4781,8 +5726,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E26" s="10"/>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="13"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
@@ -4806,8 +5751,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E27" s="10"/>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="13"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
@@ -4831,8 +5776,8 @@
         <v>2.5880000000000001</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E28" s="10"/>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="13"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
@@ -4856,8 +5801,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E29" s="10"/>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="13"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
@@ -4881,8 +5826,8 @@
         <v>105.47</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E30" s="10"/>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="13"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
@@ -4906,8 +5851,8 @@
         <v>3.9460000000000002</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E31" s="10"/>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="13"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
@@ -4931,8 +5876,8 @@
         <v>4.7840000000000007</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E32" s="10"/>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="13"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
@@ -4956,8 +5901,8 @@
         <v>838073.2</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E33" s="10"/>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="13"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
@@ -4981,8 +5926,8 @@
         <v>960.76</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E34" s="10"/>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="13"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
@@ -5006,8 +5951,8 @@
         <v>872.29599999999994</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E35" s="10"/>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="13"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
@@ -5031,8 +5976,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E36" s="11"/>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="14"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
@@ -5056,9 +6001,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E37" s="9">
-        <v>4000</v>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="12">
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -5083,8 +6028,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E38" s="10"/>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E38" s="13"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
@@ -5108,8 +6053,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E39" s="10"/>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E39" s="13"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
@@ -5133,8 +6078,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E40" s="10"/>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E40" s="13"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
@@ -5158,33 +6103,33 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E41" s="10"/>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E41" s="13"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>2050</v>
+        <v>700.72</v>
       </c>
       <c r="H41" s="1">
-        <v>2050</v>
+        <v>695.71</v>
       </c>
       <c r="I41" s="1">
-        <v>2050</v>
+        <v>689.92</v>
       </c>
       <c r="J41" s="1">
-        <v>2040</v>
+        <v>697.16</v>
       </c>
       <c r="K41" s="1">
-        <v>2040</v>
+        <v>697.5</v>
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E42" s="10"/>
+        <v>696.202</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E42" s="13"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
@@ -5208,108 +6153,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E43" s="10"/>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E43" s="13"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>2710</v>
+        <v>955.8</v>
       </c>
       <c r="H43" s="1">
-        <v>2650</v>
+        <v>907.74</v>
       </c>
       <c r="I43" s="1">
-        <v>2550</v>
+        <v>900.58</v>
       </c>
       <c r="J43" s="1">
-        <v>2540</v>
+        <v>943.01</v>
       </c>
       <c r="K43" s="1">
-        <v>2450</v>
+        <v>875.75</v>
       </c>
       <c r="L43">
         <f t="shared" si="0"/>
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E44" s="10"/>
+        <v>916.57600000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="13"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>2380</v>
+        <v>833.5</v>
       </c>
       <c r="H44" s="1">
-        <v>2380</v>
+        <v>819.25</v>
       </c>
       <c r="I44" s="1">
-        <v>2380</v>
+        <v>811.9</v>
       </c>
       <c r="J44" s="1">
-        <v>2360</v>
+        <v>821.89</v>
       </c>
       <c r="K44" s="1">
-        <v>2370</v>
+        <v>822.22</v>
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E45" s="10"/>
+        <v>821.75200000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="13"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>2390</v>
+        <v>870.32</v>
       </c>
       <c r="H45" s="1">
-        <v>2380</v>
+        <v>824.82</v>
       </c>
       <c r="I45" s="1">
-        <v>2390</v>
+        <v>817.64</v>
       </c>
       <c r="J45" s="1">
-        <v>2370</v>
+        <v>828.2</v>
       </c>
       <c r="K45" s="1">
-        <v>2380</v>
+        <v>828.34</v>
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
-        <v>2382</v>
-      </c>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E46" s="10"/>
+        <v>833.86400000000015</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="13"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1100697</v>
+        <v>988333</v>
       </c>
       <c r="H46" s="1">
-        <v>1100661</v>
+        <v>991260</v>
       </c>
       <c r="I46" s="1">
-        <v>1100155</v>
+        <v>994636</v>
       </c>
       <c r="J46" s="1">
-        <v>1105071</v>
+        <v>990399</v>
       </c>
       <c r="K46" s="1">
-        <v>1103407</v>
+        <v>990202</v>
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>1101998.2</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E47" s="10"/>
+        <v>990966</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="13"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
@@ -5317,103 +6262,400 @@
         <v>960.6</v>
       </c>
       <c r="H47" s="1">
-        <v>960.5</v>
+        <v>960.8</v>
       </c>
       <c r="I47" s="1">
-        <v>960.7</v>
+        <v>961</v>
       </c>
       <c r="J47" s="1">
-        <v>960.5</v>
+        <v>960.6</v>
       </c>
       <c r="K47" s="1">
-        <v>960.7</v>
+        <v>960.6</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>960.6</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E48" s="10"/>
+        <v>960.72</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="13"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1145.8800000000001</v>
+        <v>1028.8800000000001</v>
       </c>
       <c r="H48" s="1">
-        <v>1145.8699999999999</v>
+        <v>1031.7</v>
       </c>
       <c r="I48" s="1">
-        <v>1145.2</v>
+        <v>1035.04</v>
       </c>
       <c r="J48" s="1">
-        <v>1150.55</v>
+        <v>1031.07</v>
       </c>
       <c r="K48" s="1">
-        <v>1148.49</v>
+        <v>1030.8399999999999</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>1147.1979999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E49" s="10"/>
+        <v>1031.5059999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E49" s="13"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E50" s="11"/>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E50" s="14"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="12">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="13"/>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="13"/>
+      <c r="F53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="13"/>
+      <c r="F54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="13"/>
+      <c r="F55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2050</v>
+      </c>
+      <c r="H55" s="2">
+        <v>2050</v>
+      </c>
+      <c r="I55" s="2">
+        <v>2050</v>
+      </c>
+      <c r="J55" s="2">
+        <v>2040</v>
+      </c>
+      <c r="K55" s="2">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="13"/>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="13"/>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2710</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2650</v>
+      </c>
+      <c r="I57" s="2">
+        <v>2550</v>
+      </c>
+      <c r="J57" s="2">
+        <v>2540</v>
+      </c>
+      <c r="K57" s="2">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="13"/>
+      <c r="F58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2380</v>
+      </c>
+      <c r="H58" s="2">
+        <v>2380</v>
+      </c>
+      <c r="I58" s="2">
+        <v>2380</v>
+      </c>
+      <c r="J58" s="2">
+        <v>2360</v>
+      </c>
+      <c r="K58" s="2">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="13"/>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2390</v>
+      </c>
+      <c r="H59" s="2">
+        <v>2380</v>
+      </c>
+      <c r="I59" s="2">
+        <v>2390</v>
+      </c>
+      <c r="J59" s="2">
+        <v>2370</v>
+      </c>
+      <c r="K59" s="2">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="13"/>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1100697</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1100661</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1100155</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1105071</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1103407</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="13"/>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="H61" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="I61" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="J61" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="K61" s="2">
+        <v>960.7</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="13"/>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1145.8800000000001</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1145.8699999999999</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1145.2</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1150.55</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1148.49</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="13"/>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="14"/>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J64" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L50" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5422,20 +6664,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DECBD8-A425-424A-AD1A-0E08D414502E}">
-  <dimension ref="E7:L50"/>
+  <dimension ref="E7:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
@@ -5446,7 +6688,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5469,8 +6711,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E9" s="9">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="12">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -5492,8 +6734,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E10" s="10"/>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="13"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -5513,8 +6755,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E11" s="10"/>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="13"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
@@ -5534,8 +6776,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E12" s="10"/>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="13"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
@@ -5555,8 +6797,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E13" s="10"/>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="13"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
@@ -5580,8 +6822,8 @@
         <v>2.6680000000000001</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E14" s="10"/>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="13"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
@@ -5605,8 +6847,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E15" s="10"/>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="13"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
@@ -5630,8 +6872,8 @@
         <v>144.44</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E16" s="10"/>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="13"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
@@ -5655,8 +6897,8 @@
         <v>3.9819999999999993</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E17" s="10"/>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="13"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
@@ -5680,8 +6922,8 @@
         <v>4.645999999999999</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E18" s="10"/>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="13"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
@@ -5705,8 +6947,8 @@
         <v>83852.399999999994</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E19" s="10"/>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="13"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
@@ -5730,8 +6972,8 @@
         <v>960.74</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E20" s="10"/>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="13"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
@@ -5755,8 +6997,8 @@
         <v>87.28</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E21" s="10"/>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="13"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
@@ -5780,8 +7022,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E22" s="11"/>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="14"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
@@ -5805,8 +7047,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E23" s="9">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="12">
         <v>1000</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -5832,8 +7074,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E24" s="10"/>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="13"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
@@ -5857,8 +7099,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E25" s="10"/>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="13"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
@@ -5882,8 +7124,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E26" s="10"/>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="13"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
@@ -5907,8 +7149,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E27" s="10"/>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="13"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
@@ -5930,8 +7172,8 @@
         <v>1.4275</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E28" s="10"/>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="13"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
@@ -5953,8 +7195,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E29" s="10"/>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="13"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
@@ -5976,8 +7218,8 @@
         <v>147.33250000000001</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E30" s="10"/>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="13"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
@@ -5999,8 +7241,8 @@
         <v>2.1025</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E31" s="10"/>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="13"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
@@ -6022,8 +7264,8 @@
         <v>2.5374999999999996</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E32" s="10"/>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="13"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
@@ -6045,8 +7287,8 @@
         <v>839066.75</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E33" s="10"/>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="13"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
@@ -6068,8 +7310,8 @@
         <v>960.8</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E34" s="10"/>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="13"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
@@ -6091,8 +7333,8 @@
         <v>873.29750000000001</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E35" s="10"/>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="13"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
@@ -6114,8 +7356,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E36" s="11"/>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="14"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
@@ -6137,9 +7379,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E37" s="9">
-        <v>4000</v>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="12">
+        <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -6164,8 +7406,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E38" s="10"/>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E38" s="13"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
@@ -6189,8 +7431,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E39" s="10"/>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E39" s="13"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
@@ -6214,8 +7456,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E40" s="10"/>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E40" s="13"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
@@ -6239,31 +7481,33 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E41" s="10"/>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E41" s="13"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>1380</v>
+        <v>321.83999999999997</v>
       </c>
       <c r="H41" s="1">
-        <v>1380</v>
+        <v>321.64</v>
       </c>
       <c r="I41" s="1">
-        <v>1380</v>
+        <v>319.06</v>
       </c>
       <c r="J41" s="1">
-        <v>1380</v>
-      </c>
-      <c r="K41" s="1"/>
+        <v>324.77</v>
+      </c>
+      <c r="K41" s="1">
+        <v>319</v>
+      </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E42" s="10"/>
+        <v>321.262</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E42" s="13"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
@@ -6279,202 +7523,497 @@
       <c r="J42" s="1">
         <v>0</v>
       </c>
-      <c r="K42" s="1"/>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
       <c r="L42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E43" s="10"/>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E43" s="13"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>1710</v>
+        <v>458.55</v>
       </c>
       <c r="H43" s="1">
-        <v>1730</v>
+        <v>545.46</v>
       </c>
       <c r="I43" s="1">
-        <v>1900</v>
+        <v>448.55</v>
       </c>
       <c r="J43" s="1">
-        <v>1810</v>
-      </c>
-      <c r="K43" s="1"/>
+        <v>1250</v>
+      </c>
+      <c r="K43" s="1">
+        <v>443.96</v>
+      </c>
       <c r="L43">
         <f t="shared" si="0"/>
-        <v>1787.5</v>
-      </c>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E44" s="10"/>
+        <v>629.30399999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="13"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>1610</v>
+        <v>392.03</v>
       </c>
       <c r="H44" s="1">
-        <v>1610</v>
+        <v>391.64</v>
       </c>
       <c r="I44" s="1">
-        <v>1620</v>
+        <v>389.72</v>
       </c>
       <c r="J44" s="1">
-        <v>1610</v>
-      </c>
-      <c r="K44" s="1"/>
+        <v>396.73</v>
+      </c>
+      <c r="K44" s="1">
+        <v>391.69</v>
+      </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>1612.5</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E45" s="10"/>
+        <v>392.36199999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="13"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="1">
-        <v>1620</v>
+        <v>398.12</v>
       </c>
       <c r="H45" s="1">
-        <v>1620</v>
+        <v>398.07</v>
       </c>
       <c r="I45" s="1">
-        <v>1640</v>
+        <v>397.75</v>
       </c>
       <c r="J45" s="1">
-        <v>1610</v>
-      </c>
-      <c r="K45" s="1"/>
+        <v>403.55</v>
+      </c>
+      <c r="K45" s="1">
+        <v>398.32</v>
+      </c>
       <c r="L45">
         <f t="shared" si="0"/>
-        <v>1622.5</v>
-      </c>
-    </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E46" s="10"/>
+        <v>399.16199999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="13"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>1412018</v>
+        <v>1271478</v>
       </c>
       <c r="H46" s="1">
-        <v>1410913</v>
+        <v>1271675</v>
       </c>
       <c r="I46" s="1">
-        <v>1407703</v>
+        <v>1274130</v>
       </c>
       <c r="J46" s="1">
-        <v>1411822</v>
-      </c>
-      <c r="K46" s="1"/>
+        <v>1268641</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1273251</v>
+      </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>1410614</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E47" s="10"/>
+        <v>1271835</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="13"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G47" s="1">
-        <v>960.7</v>
+        <v>960.9</v>
       </c>
       <c r="H47" s="1">
-        <v>960.9</v>
+        <v>960.8</v>
       </c>
       <c r="I47" s="1">
         <v>960.7</v>
       </c>
       <c r="J47" s="1">
-        <v>960.8</v>
-      </c>
-      <c r="K47" s="1"/>
+        <v>961.8</v>
+      </c>
+      <c r="K47" s="1">
+        <v>960.4</v>
+      </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>960.77500000000009</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E48" s="10"/>
+        <v>960.91999999999985</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="13"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="1">
-        <v>1469.82</v>
+        <v>1323.24</v>
       </c>
       <c r="H48" s="1">
-        <v>1468.36</v>
+        <v>1323.5</v>
       </c>
       <c r="I48" s="1">
-        <v>1465.23</v>
+        <v>1326.21</v>
       </c>
       <c r="J48" s="1">
-        <v>1469.5</v>
-      </c>
-      <c r="K48" s="1"/>
+        <v>1318.96</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1325.7</v>
+      </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>1468.2275</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E49" s="10"/>
+        <v>1323.5219999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E49" s="13"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K49" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L49" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E50" s="11"/>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E50" s="14"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="12">
+        <v>4000</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="13"/>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="13"/>
+      <c r="F53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="13"/>
+      <c r="F54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="13"/>
+      <c r="F55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1380</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1380</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1380</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1380</v>
+      </c>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="13"/>
+      <c r="F56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="13"/>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1710</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1730</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1900</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1810</v>
+      </c>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="13"/>
+      <c r="F58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1610</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1610</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1620</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1610</v>
+      </c>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="13"/>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1620</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1620</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1640</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1610</v>
+      </c>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="13"/>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1412018</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1410913</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1407703</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1411822</v>
+      </c>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E61" s="13"/>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="H61" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="I61" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="J61" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E62" s="13"/>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1469.82</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1468.36</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1465.23</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1469.5</v>
+      </c>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E63" s="13"/>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E64" s="14"/>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I64" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J64" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="1"/>
-      <c r="L50" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K64" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:K7"/>
     <mergeCell ref="E9:E22"/>
     <mergeCell ref="E23:E36"/>
     <mergeCell ref="E37:E50"/>
+    <mergeCell ref="E51:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6485,33 +8024,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491B2463-697C-4FC5-A88C-76F5DBC70B85}">
   <dimension ref="E7:O64"/>
   <sheetViews>
-    <sheetView topLeftCell="E25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView topLeftCell="E28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E7" s="12" t="s">
+    <row r="7" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -6543,8 +8082,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E9" s="12">
+    <row r="9" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="15">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -6575,8 +8114,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E10" s="12"/>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E10" s="15"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -6605,8 +8144,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E11" s="12"/>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="15"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
@@ -6635,8 +8174,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E12" s="12"/>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="15"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
@@ -6665,8 +8204,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E13" s="12"/>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E13" s="15"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
@@ -6699,8 +8238,8 @@
         <v>3.4024999999999999</v>
       </c>
     </row>
-    <row r="14" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E14" s="12"/>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E14" s="15"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
@@ -6733,8 +8272,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E15" s="12"/>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E15" s="15"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
@@ -6767,8 +8306,8 @@
         <v>132.52875</v>
       </c>
     </row>
-    <row r="16" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E16" s="12"/>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E16" s="15"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
@@ -6801,8 +8340,8 @@
         <v>5.61</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E17" s="12"/>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E17" s="15"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
@@ -6835,8 +8374,8 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E18" s="12"/>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E18" s="15"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
@@ -6869,8 +8408,8 @@
         <v>83786.5</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E19" s="12"/>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="15"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
@@ -6903,8 +8442,8 @@
         <v>960.68749999999989</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E20" s="12"/>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="15"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
@@ -6937,8 +8476,8 @@
         <v>87.215000000000003</v>
       </c>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E21" s="12"/>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E21" s="15"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
@@ -6971,8 +8510,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E22" s="12"/>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E22" s="15"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
@@ -7005,8 +8544,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E23" s="12">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="15">
         <v>1000</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -7041,8 +8580,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E24" s="12"/>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E24" s="15"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
@@ -7075,8 +8614,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E25" s="12"/>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E25" s="15"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
@@ -7109,8 +8648,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E26" s="12"/>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E26" s="15"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
@@ -7143,8 +8682,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E27" s="12"/>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E27" s="15"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
@@ -7177,8 +8716,8 @@
         <v>10.561249999999999</v>
       </c>
     </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E28" s="12"/>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E28" s="15"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
@@ -7211,8 +8750,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E29" s="12"/>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E29" s="15"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
@@ -7245,8 +8784,8 @@
         <v>243.06625000000003</v>
       </c>
     </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E30" s="12"/>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E30" s="15"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
@@ -7279,8 +8818,8 @@
         <v>19.897500000000001</v>
       </c>
     </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E31" s="12"/>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E31" s="15"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
@@ -7313,8 +8852,8 @@
         <v>25.991250000000001</v>
       </c>
     </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E32" s="12"/>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="15"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
@@ -7347,8 +8886,8 @@
         <v>831437.625</v>
       </c>
     </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E33" s="12"/>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E33" s="15"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
@@ -7381,8 +8920,8 @@
         <v>960.58749999999998</v>
       </c>
     </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E34" s="12"/>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E34" s="15"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
@@ -7415,8 +8954,8 @@
         <v>865.55875000000003</v>
       </c>
     </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E35" s="12"/>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E35" s="15"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
@@ -7449,8 +8988,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E36" s="12"/>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E36" s="15"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
@@ -7483,8 +9022,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E37" s="13">
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E37" s="16">
         <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -7519,8 +9058,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E38" s="13"/>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E38" s="16"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
@@ -7553,8 +9092,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E39" s="13"/>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E39" s="16"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
@@ -7587,8 +9126,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E40" s="13"/>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E40" s="16"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
@@ -7621,8 +9160,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E41" s="13"/>
+    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E41" s="16"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
@@ -7649,8 +9188,8 @@
         <v>912.65</v>
       </c>
     </row>
-    <row r="42" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E42" s="13"/>
+    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E42" s="16"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
@@ -7677,8 +9216,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E43" s="13"/>
+    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E43" s="16"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
@@ -7705,8 +9244,8 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="44" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E44" s="13"/>
+    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E44" s="16"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
@@ -7733,8 +9272,8 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="45" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E45" s="13"/>
+    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E45" s="16"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
@@ -7761,8 +9300,8 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="46" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E46" s="13"/>
+    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E46" s="16"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
@@ -7789,8 +9328,8 @@
         <v>878926</v>
       </c>
     </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E47" s="13"/>
+    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E47" s="16"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
@@ -7817,8 +9356,8 @@
         <v>960.64</v>
       </c>
     </row>
-    <row r="48" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E48" s="13"/>
+    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E48" s="16"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
@@ -7845,8 +9384,8 @@
         <v>914.96600000000001</v>
       </c>
     </row>
-    <row r="49" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E49" s="13"/>
+    <row r="49" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E49" s="16"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
@@ -7873,8 +9412,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E50" s="13"/>
+    <row r="50" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E50" s="16"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
@@ -7901,8 +9440,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E51" s="14">
+    <row r="51" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E51" s="17">
         <v>4000</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -7933,8 +9472,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E52" s="14"/>
+    <row r="52" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E52" s="17"/>
       <c r="F52" s="2" t="s">
         <v>14</v>
       </c>
@@ -7963,8 +9502,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E53" s="14"/>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E53" s="17"/>
       <c r="F53" s="2" t="s">
         <v>15</v>
       </c>
@@ -7993,8 +9532,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E54" s="14"/>
+    <row r="54" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E54" s="17"/>
       <c r="F54" s="2" t="s">
         <v>16</v>
       </c>
@@ -8023,8 +9562,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E55" s="14"/>
+    <row r="55" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E55" s="17"/>
       <c r="F55" s="2" t="s">
         <v>1</v>
       </c>
@@ -8053,8 +9592,8 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="56" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E56" s="14"/>
+    <row r="56" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E56" s="17"/>
       <c r="F56" s="2" t="s">
         <v>2</v>
       </c>
@@ -8083,8 +9622,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E57" s="14"/>
+    <row r="57" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E57" s="17"/>
       <c r="F57" s="2" t="s">
         <v>3</v>
       </c>
@@ -8113,8 +9652,8 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="58" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E58" s="14"/>
+    <row r="58" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E58" s="17"/>
       <c r="F58" s="2" t="s">
         <v>4</v>
       </c>
@@ -8143,8 +9682,8 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="59" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E59" s="14"/>
+    <row r="59" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E59" s="17"/>
       <c r="F59" s="2" t="s">
         <v>5</v>
       </c>
@@ -8173,8 +9712,8 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="60" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E60" s="14"/>
+    <row r="60" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E60" s="17"/>
       <c r="F60" s="2" t="s">
         <v>6</v>
       </c>
@@ -8203,8 +9742,8 @@
         <v>917492</v>
       </c>
     </row>
-    <row r="61" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E61" s="14"/>
+    <row r="61" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E61" s="17"/>
       <c r="F61" s="2" t="s">
         <v>7</v>
       </c>
@@ -8233,8 +9772,8 @@
         <v>960.6</v>
       </c>
     </row>
-    <row r="62" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E62" s="14"/>
+    <row r="62" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E62" s="17"/>
       <c r="F62" s="2" t="s">
         <v>8</v>
       </c>
@@ -8263,8 +9802,8 @@
         <v>955.11</v>
       </c>
     </row>
-    <row r="63" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E63" s="14"/>
+    <row r="63" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E63" s="17"/>
       <c r="F63" s="2" t="s">
         <v>11</v>
       </c>
@@ -8293,8 +9832,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E64" s="14"/>
+    <row r="64" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E64" s="17"/>
       <c r="F64" s="2" t="s">
         <v>9</v>
       </c>
@@ -8340,33 +9879,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB6DA92-7223-446A-BEE3-0FF2B848B2A6}">
   <dimension ref="E7:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView topLeftCell="D31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="33.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E7" s="12" t="s">
+    <row r="7" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -8398,8 +9937,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E9" s="12">
+    <row r="9" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="15">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -8430,8 +9969,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E10" s="12"/>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E10" s="15"/>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
@@ -8460,8 +9999,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E11" s="12"/>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="15"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
@@ -8490,8 +10029,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E12" s="12"/>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="15"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
@@ -8520,8 +10059,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E13" s="12"/>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E13" s="15"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
@@ -8554,8 +10093,8 @@
         <v>3.3049999999999997</v>
       </c>
     </row>
-    <row r="14" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E14" s="12"/>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E14" s="15"/>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
@@ -8588,8 +10127,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E15" s="12"/>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E15" s="15"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
@@ -8622,8 +10161,8 @@
         <v>129.7825</v>
       </c>
     </row>
-    <row r="16" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E16" s="12"/>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E16" s="15"/>
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
@@ -8656,8 +10195,8 @@
         <v>5.5274999999999999</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E17" s="12"/>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E17" s="15"/>
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
@@ -8690,8 +10229,8 @@
         <v>6.486250000000001</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E18" s="12"/>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E18" s="15"/>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
@@ -8724,8 +10263,8 @@
         <v>83795</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E19" s="12"/>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="15"/>
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
@@ -8758,8 +10297,8 @@
         <v>960.62500000000011</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E20" s="12"/>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="15"/>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
@@ -8792,8 +10331,8 @@
         <v>87.23</v>
       </c>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E21" s="12"/>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E21" s="15"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
@@ -8826,8 +10365,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E22" s="12"/>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E22" s="15"/>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
@@ -8860,8 +10399,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E23" s="12">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="15">
         <v>1000</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -8896,8 +10435,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E24" s="12"/>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E24" s="15"/>
       <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
@@ -8930,8 +10469,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E25" s="12"/>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E25" s="15"/>
       <c r="F25" s="2" t="s">
         <v>15</v>
       </c>
@@ -8964,8 +10503,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E26" s="12"/>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E26" s="15"/>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
@@ -8998,8 +10537,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E27" s="12"/>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E27" s="15"/>
       <c r="F27" s="2" t="s">
         <v>1</v>
       </c>
@@ -9032,8 +10571,8 @@
         <v>3.3050000000000002</v>
       </c>
     </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E28" s="12"/>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E28" s="15"/>
       <c r="F28" s="2" t="s">
         <v>2</v>
       </c>
@@ -9066,8 +10605,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E29" s="12"/>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E29" s="15"/>
       <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
@@ -9100,8 +10639,8 @@
         <v>105.67124999999999</v>
       </c>
     </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E30" s="12"/>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E30" s="15"/>
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
@@ -9134,8 +10673,8 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E31" s="12"/>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E31" s="15"/>
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
@@ -9168,8 +10707,8 @@
         <v>7.7487500000000002</v>
       </c>
     </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E32" s="12"/>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="15"/>
       <c r="F32" s="2" t="s">
         <v>6</v>
       </c>
@@ -9202,8 +10741,8 @@
         <v>837462.875</v>
       </c>
     </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E33" s="12"/>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E33" s="15"/>
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
@@ -9236,8 +10775,8 @@
         <v>960.62500000000011</v>
       </c>
     </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E34" s="12"/>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E34" s="15"/>
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
@@ -9270,8 +10809,8 @@
         <v>873.02874999999983</v>
       </c>
     </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E35" s="12"/>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E35" s="15"/>
       <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
@@ -9304,8 +10843,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E36" s="12"/>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E36" s="15"/>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
@@ -9338,8 +10877,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E37" s="12">
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E37" s="15">
         <v>2000</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -9374,8 +10913,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E38" s="12"/>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E38" s="15"/>
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
@@ -9408,8 +10947,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E39" s="12"/>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E39" s="15"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
@@ -9442,8 +10981,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E40" s="12"/>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E40" s="15"/>
       <c r="F40" s="1" t="s">
         <v>16</v>
       </c>
@@ -9476,8 +11015,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E41" s="12"/>
+    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E41" s="15"/>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
@@ -9504,8 +11043,8 @@
         <v>723.66599999999994</v>
       </c>
     </row>
-    <row r="42" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E42" s="12"/>
+    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E42" s="15"/>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
@@ -9532,8 +11071,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E43" s="12"/>
+    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E43" s="15"/>
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
@@ -9560,8 +11099,8 @@
         <v>1134.1280000000002</v>
       </c>
     </row>
-    <row r="44" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E44" s="12"/>
+    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E44" s="15"/>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
@@ -9588,8 +11127,8 @@
         <v>874.75</v>
       </c>
     </row>
-    <row r="45" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E45" s="12"/>
+    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E45" s="15"/>
       <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
@@ -9616,8 +11155,8 @@
         <v>890.38400000000001</v>
       </c>
     </row>
-    <row r="46" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E46" s="12"/>
+    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E46" s="15"/>
       <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
@@ -9644,8 +11183,8 @@
         <v>975328.2</v>
       </c>
     </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E47" s="12"/>
+    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E47" s="15"/>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
@@ -9672,8 +11211,8 @@
         <v>960.78</v>
       </c>
     </row>
-    <row r="48" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E48" s="12"/>
+    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E48" s="15"/>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
@@ -9700,8 +11239,8 @@
         <v>1015.1380000000001</v>
       </c>
     </row>
-    <row r="49" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E49" s="12"/>
+    <row r="49" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E49" s="15"/>
       <c r="F49" s="1" t="s">
         <v>11</v>
       </c>
@@ -9728,8 +11267,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E50" s="12"/>
+    <row r="50" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E50" s="15"/>
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
@@ -9756,8 +11295,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E51" s="12">
+    <row r="51" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E51" s="15">
         <v>4000</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -9788,8 +11327,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E52" s="12"/>
+    <row r="52" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E52" s="15"/>
       <c r="F52" s="1" t="s">
         <v>14</v>
       </c>
@@ -9818,8 +11357,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E53" s="12"/>
+    <row r="53" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E53" s="15"/>
       <c r="F53" s="1" t="s">
         <v>15</v>
       </c>
@@ -9848,8 +11387,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E54" s="12"/>
+    <row r="54" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E54" s="15"/>
       <c r="F54" s="1" t="s">
         <v>16</v>
       </c>
@@ -9878,8 +11417,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E55" s="12"/>
+    <row r="55" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E55" s="15"/>
       <c r="F55" s="1" t="s">
         <v>1</v>
       </c>
@@ -9906,8 +11445,8 @@
       </c>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E56" s="12"/>
+    <row r="56" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E56" s="15"/>
       <c r="F56" s="1" t="s">
         <v>2</v>
       </c>
@@ -9934,8 +11473,8 @@
       </c>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E57" s="12"/>
+    <row r="57" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E57" s="15"/>
       <c r="F57" s="1" t="s">
         <v>3</v>
       </c>
@@ -9962,8 +11501,8 @@
       </c>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E58" s="12"/>
+    <row r="58" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E58" s="15"/>
       <c r="F58" s="1" t="s">
         <v>4</v>
       </c>
@@ -9990,8 +11529,8 @@
       </c>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E59" s="12"/>
+    <row r="59" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E59" s="15"/>
       <c r="F59" s="1" t="s">
         <v>5</v>
       </c>
@@ -10018,8 +11557,8 @@
       </c>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E60" s="12"/>
+    <row r="60" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E60" s="15"/>
       <c r="F60" s="1" t="s">
         <v>6</v>
       </c>
@@ -10046,8 +11585,8 @@
       </c>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E61" s="12"/>
+    <row r="61" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E61" s="15"/>
       <c r="F61" s="1" t="s">
         <v>7</v>
       </c>
@@ -10074,8 +11613,8 @@
       </c>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E62" s="12"/>
+    <row r="62" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E62" s="15"/>
       <c r="F62" s="1" t="s">
         <v>8</v>
       </c>
@@ -10102,8 +11641,8 @@
       </c>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E63" s="12"/>
+    <row r="63" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E63" s="15"/>
       <c r="F63" s="1" t="s">
         <v>11</v>
       </c>
@@ -10130,8 +11669,8 @@
       </c>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E64" s="12"/>
+    <row r="64" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E64" s="15"/>
       <c r="F64" s="1" t="s">
         <v>9</v>
       </c>
